--- a/results.xlsx
+++ b/results.xlsx
@@ -1383,46 +1383,46 @@
         <v>48.849969</v>
       </c>
       <c r="D18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="E18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="F18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="G18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="H18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="I18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="J18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="K18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="L18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="M18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="N18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="O18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="P18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.151938</v>
+        <v>97.699938</v>
       </c>
     </row>
     <row r="19">
@@ -1438,46 +1438,46 @@
         <v>64448.28839944841</v>
       </c>
       <c r="D19" t="n">
-        <v>96382.53794646719</v>
+        <v>96426.0859464672</v>
       </c>
       <c r="E19" t="n">
-        <v>97621.89886080532</v>
+        <v>97665.44686080533</v>
       </c>
       <c r="F19" t="n">
-        <v>98512.68951798588</v>
+        <v>98556.23751798589</v>
       </c>
       <c r="G19" t="n">
-        <v>99333.76612373489</v>
+        <v>99377.3141237349</v>
       </c>
       <c r="H19" t="n">
-        <v>100085.1286780524</v>
+        <v>100128.6766780524</v>
       </c>
       <c r="I19" t="n">
-        <v>100782.2691923676</v>
+        <v>100825.8171923676</v>
       </c>
       <c r="J19" t="n">
-        <v>101262.5215466736</v>
+        <v>101306.0695466737</v>
       </c>
       <c r="K19" t="n">
-        <v>101711.7898781212</v>
+        <v>101755.3378781212</v>
       </c>
       <c r="L19" t="n">
-        <v>102137.820192425</v>
+        <v>102181.368192425</v>
       </c>
       <c r="M19" t="n">
-        <v>102532.8664838702</v>
+        <v>102576.4144838702</v>
       </c>
       <c r="N19" t="n">
-        <v>102904.6747581717</v>
+        <v>102948.2227581717</v>
       </c>
       <c r="O19" t="n">
-        <v>103260.9910210439</v>
+        <v>103304.5390210439</v>
       </c>
       <c r="P19" t="n">
-        <v>103594.0692667723</v>
+        <v>103637.6172667723</v>
       </c>
       <c r="Q19" t="n">
-        <v>103903.9094953568</v>
+        <v>103947.4574953568</v>
       </c>
     </row>
     <row r="20">
@@ -1493,46 +1493,46 @@
         <v>59840.96635795161</v>
       </c>
       <c r="D20" t="n">
-        <v>147768.7961216329</v>
+        <v>147725.2481216328</v>
       </c>
       <c r="E20" t="n">
-        <v>151191.1197032947</v>
+        <v>151147.5717032946</v>
       </c>
       <c r="F20" t="n">
-        <v>153726.4022776141</v>
+        <v>153682.8542776141</v>
       </c>
       <c r="G20" t="n">
-        <v>156102.0966504652</v>
+        <v>156058.5486504651</v>
       </c>
       <c r="H20" t="n">
-        <v>158320.3808218476</v>
+        <v>158276.8328218476</v>
       </c>
       <c r="I20" t="n">
-        <v>160423.9546365324</v>
+        <v>160380.4066365324</v>
       </c>
       <c r="J20" t="n">
-        <v>161992.2610044264</v>
+        <v>161948.7130044264</v>
       </c>
       <c r="K20" t="n">
-        <v>163511.8473807789</v>
+        <v>163468.2993807789</v>
       </c>
       <c r="L20" t="n">
-        <v>165006.0545977751</v>
+        <v>164962.5065977751</v>
       </c>
       <c r="M20" t="n">
-        <v>166458.2383238098</v>
+        <v>166414.6903238098</v>
       </c>
       <c r="N20" t="n">
-        <v>167892.4090411264</v>
+        <v>167848.8610411264</v>
       </c>
       <c r="O20" t="n">
-        <v>169332.9630779539</v>
+        <v>169289.4150779539</v>
       </c>
       <c r="P20" t="n">
-        <v>170764.4171483354</v>
+        <v>170720.8691483354</v>
       </c>
       <c r="Q20" t="n">
-        <v>172191.9068623416</v>
+        <v>172148.3588623416</v>
       </c>
     </row>
     <row r="21">
@@ -1878,46 +1878,46 @@
         <v>-15369.03364204839</v>
       </c>
       <c r="D27" t="n">
-        <v>33480.55612163285</v>
+        <v>33437.00812163284</v>
       </c>
       <c r="E27" t="n">
-        <v>36902.87970329465</v>
+        <v>36859.33170329464</v>
       </c>
       <c r="F27" t="n">
-        <v>39438.1622776141</v>
+        <v>39394.61427761409</v>
       </c>
       <c r="G27" t="n">
-        <v>41813.85665046515</v>
+        <v>41770.30865046514</v>
       </c>
       <c r="H27" t="n">
-        <v>44032.14082184758</v>
+        <v>43988.59282184757</v>
       </c>
       <c r="I27" t="n">
-        <v>46135.7146365324</v>
+        <v>46092.16663653239</v>
       </c>
       <c r="J27" t="n">
-        <v>47704.02100442637</v>
+        <v>47660.47300442636</v>
       </c>
       <c r="K27" t="n">
-        <v>49223.60738077886</v>
+        <v>49180.05938077885</v>
       </c>
       <c r="L27" t="n">
-        <v>50717.81459777507</v>
+        <v>50674.26659777506</v>
       </c>
       <c r="M27" t="n">
-        <v>52169.99832380981</v>
+        <v>52126.4503238098</v>
       </c>
       <c r="N27" t="n">
-        <v>53604.16904112637</v>
+        <v>53560.62104112636</v>
       </c>
       <c r="O27" t="n">
-        <v>55044.72307795392</v>
+        <v>55001.17507795391</v>
       </c>
       <c r="P27" t="n">
-        <v>56476.17714833537</v>
+        <v>56432.62914833536</v>
       </c>
       <c r="Q27" t="n">
-        <v>57903.66686234159</v>
+        <v>57860.11886234158</v>
       </c>
     </row>
     <row r="28">
@@ -1930,28 +1930,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>16709.95587178955</v>
+        <v>28490.12792583248</v>
       </c>
       <c r="D28" t="n">
-        <v>16709.95587178955</v>
+        <v>28490.12792583248</v>
       </c>
       <c r="E28" t="n">
-        <v>16709.95587178955</v>
+        <v>28490.12792583248</v>
       </c>
       <c r="F28" t="n">
-        <v>16709.95587178955</v>
+        <v>28490.12792583248</v>
       </c>
       <c r="G28" t="n">
-        <v>16709.95587178955</v>
+        <v>28490.12792583248</v>
       </c>
       <c r="H28" t="n">
-        <v>16709.95587178955</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>16709.95587178955</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16709.95587178955</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1985,49 +1985,49 @@
         <v>108000</v>
       </c>
       <c r="C29" t="n">
-        <v>96690.03999999999</v>
+        <v>90309.87</v>
       </c>
       <c r="D29" t="n">
-        <v>84814.59</v>
+        <v>70850.73</v>
       </c>
       <c r="E29" t="n">
-        <v>72345.36</v>
+        <v>49445.68</v>
       </c>
       <c r="F29" t="n">
-        <v>59252.67</v>
+        <v>25900.12</v>
       </c>
       <c r="G29" t="n">
-        <v>45505.35</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>31070.66</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>15914.24</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2150,49 +2150,49 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-41787.88070160289</v>
+        <v>-53568.05275564583</v>
       </c>
       <c r="D32" t="n">
-        <v>-2647.182125686602</v>
+        <v>-14470.90217972954</v>
       </c>
       <c r="E32" t="n">
-        <v>775.1414559751938</v>
+        <v>-11048.57859806775</v>
       </c>
       <c r="F32" t="n">
-        <v>3310.424030294649</v>
+        <v>-8513.296023748291</v>
       </c>
       <c r="G32" t="n">
-        <v>5686.118403145701</v>
+        <v>-6137.601650897239</v>
       </c>
       <c r="H32" t="n">
-        <v>7904.402574528132</v>
+        <v>24570.81044631768</v>
       </c>
       <c r="I32" t="n">
-        <v>10007.97638921295</v>
+        <v>26674.38426100249</v>
       </c>
       <c r="J32" t="n">
-        <v>11576.28275710691</v>
+        <v>28242.69062889646</v>
       </c>
       <c r="K32" t="n">
-        <v>29805.82500524896</v>
+        <v>29762.27700524895</v>
       </c>
       <c r="L32" t="n">
-        <v>31300.03222224517</v>
+        <v>31256.48422224516</v>
       </c>
       <c r="M32" t="n">
-        <v>32752.21594827991</v>
+        <v>32708.6679482799</v>
       </c>
       <c r="N32" t="n">
-        <v>34186.38666559647</v>
+        <v>34142.83866559646</v>
       </c>
       <c r="O32" t="n">
-        <v>35626.94070242402</v>
+        <v>35583.39270242401</v>
       </c>
       <c r="P32" t="n">
-        <v>37058.39477280546</v>
+        <v>37014.84677280545</v>
       </c>
       <c r="Q32" t="n">
-        <v>38485.88448681169</v>
+        <v>38442.33648681168</v>
       </c>
     </row>
     <row r="33">
@@ -2205,49 +2205,49 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-37.45983998895734</v>
+        <v>-24.00995995795435</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.186504522183682</v>
+        <v>-6.486063316052896</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3474293793095422</v>
+        <v>-4.952129414559672</v>
       </c>
       <c r="F33" t="n">
-        <v>1.483778937677499</v>
+        <v>-3.815779856191716</v>
       </c>
       <c r="G33" t="n">
-        <v>2.548598803814587</v>
+        <v>-2.750959990054628</v>
       </c>
       <c r="H33" t="n">
-        <v>3.542865188168882</v>
+        <v>11.01298525152002</v>
       </c>
       <c r="I33" t="n">
-        <v>4.485716765947402</v>
+        <v>11.95583682929854</v>
       </c>
       <c r="J33" t="n">
-        <v>5.188653892796209</v>
+        <v>12.65877395614735</v>
       </c>
       <c r="K33" t="n">
-        <v>13.3593929231336</v>
+        <v>13.33987409274007</v>
       </c>
       <c r="L33" t="n">
-        <v>14.02911776104427</v>
+        <v>14.00959893065074</v>
       </c>
       <c r="M33" t="n">
-        <v>14.68000707510492</v>
+        <v>14.66048824471139</v>
       </c>
       <c r="N33" t="n">
-        <v>15.32282270353024</v>
+        <v>15.30330387313671</v>
       </c>
       <c r="O33" t="n">
-        <v>15.96849942617075</v>
+        <v>15.94898059577722</v>
       </c>
       <c r="P33" t="n">
-        <v>16.61009741496243</v>
+        <v>16.5905785845689</v>
       </c>
       <c r="Q33" t="n">
-        <v>17.24991852307745</v>
+        <v>17.23039969268392</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -500,49 +500,49 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3701.045665800001</v>
+        <v>4112.272962000001</v>
       </c>
       <c r="D2" t="n">
-        <v>7562.872638810001</v>
+        <v>8403.191820900001</v>
       </c>
       <c r="E2" t="n">
-        <v>7706.91020841</v>
+        <v>8563.2335649</v>
       </c>
       <c r="F2" t="n">
-        <v>7810.437211560001</v>
+        <v>8678.263568400002</v>
       </c>
       <c r="G2" t="n">
-        <v>7905.862101420001</v>
+        <v>8784.291223800001</v>
       </c>
       <c r="H2" t="n">
-        <v>7993.184877990001</v>
+        <v>8881.316531100001</v>
       </c>
       <c r="I2" t="n">
-        <v>8074.206010890001</v>
+        <v>8971.340012100001</v>
       </c>
       <c r="J2" t="n">
-        <v>8130.020569110001</v>
+        <v>9033.356187900001</v>
       </c>
       <c r="K2" t="n">
-        <v>8182.234188090001</v>
+        <v>9091.371320100001</v>
       </c>
       <c r="L2" t="n">
-        <v>8231.747102640002</v>
+        <v>9146.3856696</v>
       </c>
       <c r="M2" t="n">
-        <v>8277.65907795</v>
+        <v>9197.3989755</v>
       </c>
       <c r="N2" t="n">
-        <v>8320.870348830002</v>
+        <v>9245.411498700001</v>
       </c>
       <c r="O2" t="n">
-        <v>8362.281150090001</v>
+        <v>9291.423500100002</v>
       </c>
       <c r="P2" t="n">
-        <v>8400.991246920001</v>
+        <v>9334.434718800001</v>
       </c>
       <c r="Q2" t="n">
-        <v>8437.000639320002</v>
+        <v>9374.445154800002</v>
       </c>
     </row>
     <row r="3">
@@ -555,49 +555,49 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104.66513982</v>
+        <v>116.2945998</v>
       </c>
       <c r="D3" t="n">
-        <v>213.86156868</v>
+        <v>237.6239652</v>
       </c>
       <c r="E3" t="n">
-        <v>217.93463748</v>
+        <v>242.1495972</v>
       </c>
       <c r="F3" t="n">
-        <v>220.86215568</v>
+        <v>245.4023952</v>
       </c>
       <c r="G3" t="n">
-        <v>223.56056376</v>
+        <v>248.4006264</v>
       </c>
       <c r="H3" t="n">
-        <v>226.02986172</v>
+        <v>251.1442908</v>
       </c>
       <c r="I3" t="n">
-        <v>228.32096292</v>
+        <v>253.6899588</v>
       </c>
       <c r="J3" t="n">
-        <v>229.89927708</v>
+        <v>255.4436412</v>
       </c>
       <c r="K3" t="n">
-        <v>231.37576452</v>
+        <v>257.0841828</v>
       </c>
       <c r="L3" t="n">
-        <v>232.77588192</v>
+        <v>258.6398688</v>
       </c>
       <c r="M3" t="n">
-        <v>234.0741726</v>
+        <v>260.082414</v>
       </c>
       <c r="N3" t="n">
-        <v>235.29609324</v>
+        <v>261.4401036</v>
       </c>
       <c r="O3" t="n">
-        <v>236.46710052</v>
+        <v>262.7412228</v>
       </c>
       <c r="P3" t="n">
-        <v>237.56173776</v>
+        <v>263.9574864</v>
       </c>
       <c r="Q3" t="n">
-        <v>238.58000496</v>
+        <v>265.0888944</v>
       </c>
     </row>
     <row r="4">
@@ -610,49 +610,49 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>78.22909935</v>
+        <v>86.9212215</v>
       </c>
       <c r="D4" t="n">
-        <v>160.3961765100001</v>
+        <v>178.2179739000001</v>
       </c>
       <c r="E4" t="n">
-        <v>163.45097811</v>
+        <v>181.6121979</v>
       </c>
       <c r="F4" t="n">
-        <v>165.6466167600001</v>
+        <v>184.0517964</v>
       </c>
       <c r="G4" t="n">
-        <v>167.67042282</v>
+        <v>186.3004698</v>
       </c>
       <c r="H4" t="n">
-        <v>169.52239629</v>
+        <v>188.3582181</v>
       </c>
       <c r="I4" t="n">
-        <v>171.24072219</v>
+        <v>190.2674691</v>
       </c>
       <c r="J4" t="n">
-        <v>172.42445781</v>
+        <v>191.5827309</v>
       </c>
       <c r="K4" t="n">
-        <v>173.5318233900001</v>
+        <v>192.8131371</v>
       </c>
       <c r="L4" t="n">
-        <v>174.58191144</v>
+        <v>193.9799016</v>
       </c>
       <c r="M4" t="n">
-        <v>175.55562945</v>
+        <v>195.0618105</v>
       </c>
       <c r="N4" t="n">
-        <v>176.47206993</v>
+        <v>196.0800777</v>
       </c>
       <c r="O4" t="n">
-        <v>177.3503253900001</v>
+        <v>197.0559171</v>
       </c>
       <c r="P4" t="n">
-        <v>178.17130332</v>
+        <v>197.9681148000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>178.9350037200001</v>
+        <v>198.8166708000001</v>
       </c>
     </row>
     <row r="5">
@@ -720,49 +720,49 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>114689.2547574</v>
+        <v>127432.505286</v>
       </c>
       <c r="D6" t="n">
-        <v>234371.3340681</v>
+        <v>260412.5934090001</v>
       </c>
       <c r="E6" t="n">
-        <v>238835.0185641</v>
+        <v>265372.242849</v>
       </c>
       <c r="F6" t="n">
-        <v>242043.2917956</v>
+        <v>268936.990884</v>
       </c>
       <c r="G6" t="n">
-        <v>245000.4827742</v>
+        <v>272222.758638</v>
       </c>
       <c r="H6" t="n">
-        <v>247706.5914999</v>
+        <v>275229.546111</v>
       </c>
       <c r="I6" t="n">
-        <v>250217.4140289</v>
+        <v>278019.348921</v>
       </c>
       <c r="J6" t="n">
-        <v>251947.0917711</v>
+        <v>279941.2130790001</v>
       </c>
       <c r="K6" t="n">
-        <v>253565.1774009001</v>
+        <v>281739.086001</v>
       </c>
       <c r="L6" t="n">
-        <v>255099.5689464</v>
+        <v>283443.965496</v>
       </c>
       <c r="M6" t="n">
-        <v>256522.3683795</v>
+        <v>285024.853755</v>
       </c>
       <c r="N6" t="n">
-        <v>257861.4737283</v>
+        <v>286512.748587</v>
       </c>
       <c r="O6" t="n">
-        <v>259144.7830209</v>
+        <v>287938.647801</v>
       </c>
       <c r="P6" t="n">
-        <v>260344.3982292</v>
+        <v>289271.553588</v>
       </c>
       <c r="Q6" t="n">
-        <v>261460.3193532001</v>
+        <v>290511.4659480001</v>
       </c>
     </row>
     <row r="7">
@@ -833,46 +833,46 @@
         <v>7200</v>
       </c>
       <c r="D8" t="n">
-        <v>7200</v>
+        <v>7920.000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>7200</v>
+        <v>8712.000000000002</v>
       </c>
       <c r="F8" t="n">
-        <v>7200</v>
+        <v>9583.200000000003</v>
       </c>
       <c r="G8" t="n">
-        <v>7200</v>
+        <v>10541.52</v>
       </c>
       <c r="H8" t="n">
-        <v>7200</v>
+        <v>11595.67200000001</v>
       </c>
       <c r="I8" t="n">
-        <v>7200</v>
+        <v>12755.23920000001</v>
       </c>
       <c r="J8" t="n">
-        <v>7200</v>
+        <v>14030.76312000001</v>
       </c>
       <c r="K8" t="n">
-        <v>7200</v>
+        <v>15433.83943200001</v>
       </c>
       <c r="L8" t="n">
-        <v>7200</v>
+        <v>16977.22337520001</v>
       </c>
       <c r="M8" t="n">
-        <v>7200</v>
+        <v>18674.94571272002</v>
       </c>
       <c r="N8" t="n">
-        <v>7200</v>
+        <v>20542.44028399202</v>
       </c>
       <c r="O8" t="n">
-        <v>7200</v>
+        <v>22596.68431239123</v>
       </c>
       <c r="P8" t="n">
-        <v>7200</v>
+        <v>24856.35274363035</v>
       </c>
       <c r="Q8" t="n">
-        <v>7200</v>
+        <v>27341.98801799339</v>
       </c>
     </row>
     <row r="9">
@@ -885,49 +885,49 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="D9" t="n">
-        <v>1980</v>
+        <v>2760</v>
       </c>
       <c r="E9" t="n">
-        <v>2178</v>
+        <v>3174</v>
       </c>
       <c r="F9" t="n">
-        <v>2395.800000000001</v>
+        <v>3650.099999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>2635.380000000001</v>
+        <v>4197.614999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2898.918000000001</v>
+        <v>4827.257249999999</v>
       </c>
       <c r="I9" t="n">
-        <v>3188.809800000002</v>
+        <v>5551.345837499998</v>
       </c>
       <c r="J9" t="n">
-        <v>3507.690780000002</v>
+        <v>6384.047713124997</v>
       </c>
       <c r="K9" t="n">
-        <v>3858.459858000003</v>
+        <v>7341.654870093746</v>
       </c>
       <c r="L9" t="n">
-        <v>4244.305843800003</v>
+        <v>8442.903100607808</v>
       </c>
       <c r="M9" t="n">
-        <v>4668.736428180005</v>
+        <v>9709.338565698978</v>
       </c>
       <c r="N9" t="n">
-        <v>5135.610070998006</v>
+        <v>11165.73935055382</v>
       </c>
       <c r="O9" t="n">
-        <v>5649.171078097806</v>
+        <v>12840.6002531369</v>
       </c>
       <c r="P9" t="n">
-        <v>6214.088185907588</v>
+        <v>14766.69029110743</v>
       </c>
       <c r="Q9" t="n">
-        <v>6835.497004498347</v>
+        <v>16981.69383477354</v>
       </c>
     </row>
     <row r="10">
@@ -1050,49 +1050,49 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>213289.2547574</v>
+        <v>226632.505286</v>
       </c>
       <c r="D12" t="n">
-        <v>244151.3340681</v>
+        <v>271692.5934090001</v>
       </c>
       <c r="E12" t="n">
-        <v>248813.0185641</v>
+        <v>277858.242849</v>
       </c>
       <c r="F12" t="n">
-        <v>252239.0917956</v>
+        <v>282770.290884</v>
       </c>
       <c r="G12" t="n">
-        <v>255435.8627742</v>
+        <v>287561.893638</v>
       </c>
       <c r="H12" t="n">
-        <v>258405.5094999</v>
+        <v>292252.475361</v>
       </c>
       <c r="I12" t="n">
-        <v>261206.2238289</v>
+        <v>296925.9339585</v>
       </c>
       <c r="J12" t="n">
-        <v>263254.7825511</v>
+        <v>300956.0239121251</v>
       </c>
       <c r="K12" t="n">
-        <v>265223.6372589001</v>
+        <v>305114.5803030938</v>
       </c>
       <c r="L12" t="n">
-        <v>267143.8747902</v>
+        <v>309464.0919718078</v>
       </c>
       <c r="M12" t="n">
-        <v>268991.10480768</v>
+        <v>314009.138033419</v>
       </c>
       <c r="N12" t="n">
-        <v>270797.083799298</v>
+        <v>318820.9282215459</v>
       </c>
       <c r="O12" t="n">
-        <v>272593.9540989978</v>
+        <v>323975.9323665281</v>
       </c>
       <c r="P12" t="n">
-        <v>274358.4864151076</v>
+        <v>329494.5966227378</v>
       </c>
       <c r="Q12" t="n">
-        <v>276095.8163576984</v>
+        <v>335435.147800767</v>
       </c>
     </row>
     <row r="13">
@@ -1160,49 +1160,49 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2867.231368935001</v>
+        <v>3185.812632150001</v>
       </c>
       <c r="D14" t="n">
-        <v>5859.283351702501</v>
+        <v>6510.314835225002</v>
       </c>
       <c r="E14" t="n">
-        <v>5970.8754641025</v>
+        <v>6634.306071225</v>
       </c>
       <c r="F14" t="n">
-        <v>6051.08229489</v>
+        <v>6723.424772100001</v>
       </c>
       <c r="G14" t="n">
-        <v>6125.012069355002</v>
+        <v>6805.56896595</v>
       </c>
       <c r="H14" t="n">
-        <v>6192.6647874975</v>
+        <v>6880.738652775</v>
       </c>
       <c r="I14" t="n">
-        <v>6255.435350722501</v>
+        <v>6950.483723025001</v>
       </c>
       <c r="J14" t="n">
-        <v>6298.677294277501</v>
+        <v>6998.530326975002</v>
       </c>
       <c r="K14" t="n">
-        <v>6339.129435022502</v>
+        <v>7043.477150025001</v>
       </c>
       <c r="L14" t="n">
-        <v>6377.489223660002</v>
+        <v>7086.0991374</v>
       </c>
       <c r="M14" t="n">
-        <v>6413.059209487499</v>
+        <v>7125.621343875</v>
       </c>
       <c r="N14" t="n">
-        <v>6446.536843207501</v>
+        <v>7162.818714675001</v>
       </c>
       <c r="O14" t="n">
-        <v>6478.619575522501</v>
+        <v>7198.466195025001</v>
       </c>
       <c r="P14" t="n">
-        <v>6508.609955730001</v>
+        <v>7231.788839700001</v>
       </c>
       <c r="Q14" t="n">
-        <v>6536.507983830002</v>
+        <v>7262.786648700003</v>
       </c>
     </row>
     <row r="15">
@@ -1215,49 +1215,49 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>41887.6363692</v>
+        <v>46541.818188</v>
       </c>
       <c r="D15" t="n">
-        <v>64206.69969487501</v>
+        <v>71340.77743875002</v>
       </c>
       <c r="E15" t="n">
-        <v>65429.538874875</v>
+        <v>72699.48763874998</v>
       </c>
       <c r="F15" t="n">
-        <v>66308.45453550002</v>
+        <v>73676.06059500002</v>
       </c>
       <c r="G15" t="n">
-        <v>67118.58549225</v>
+        <v>74576.2061025</v>
       </c>
       <c r="H15" t="n">
-        <v>67859.93174512501</v>
+        <v>75399.92416125</v>
       </c>
       <c r="I15" t="n">
-        <v>68547.77878387501</v>
+        <v>76164.19864875001</v>
       </c>
       <c r="J15" t="n">
-        <v>69021.62896612502</v>
+        <v>76690.69885125001</v>
       </c>
       <c r="K15" t="n">
-        <v>69464.908168875</v>
+        <v>77183.23129875</v>
       </c>
       <c r="L15" t="n">
-        <v>69885.25913700002</v>
+        <v>77650.28792999999</v>
       </c>
       <c r="M15" t="n">
-        <v>70275.03912562499</v>
+        <v>78083.37680625002</v>
       </c>
       <c r="N15" t="n">
-        <v>70641.890879625</v>
+        <v>78490.98986625001</v>
       </c>
       <c r="O15" t="n">
-        <v>70993.457143875</v>
+        <v>78881.61904875001</v>
       </c>
       <c r="P15" t="n">
-        <v>71322.0951735</v>
+        <v>79246.772415</v>
       </c>
       <c r="Q15" t="n">
-        <v>71627.80496850002</v>
+        <v>79586.44996500001</v>
       </c>
     </row>
     <row r="16">
@@ -1270,49 +1270,49 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1220.073603513402</v>
+        <v>1355.637337237114</v>
       </c>
       <c r="D16" t="n">
-        <v>2493.365865689691</v>
+        <v>2770.40651743299</v>
       </c>
       <c r="E16" t="n">
-        <v>2540.852895627835</v>
+        <v>2823.169884030928</v>
       </c>
       <c r="F16" t="n">
-        <v>2574.984198395877</v>
+        <v>2861.093553773197</v>
       </c>
       <c r="G16" t="n">
-        <v>2606.444355729897</v>
+        <v>2896.04928414433</v>
       </c>
       <c r="H16" t="n">
-        <v>2635.233367629897</v>
+        <v>2928.03707514433</v>
       </c>
       <c r="I16" t="n">
-        <v>2661.944821970103</v>
+        <v>2957.71646885567</v>
       </c>
       <c r="J16" t="n">
-        <v>2680.346046071134</v>
+        <v>2978.162273412371</v>
       </c>
       <c r="K16" t="n">
-        <v>2697.560094423712</v>
+        <v>2997.288993804124</v>
       </c>
       <c r="L16" t="n">
-        <v>2713.883760964949</v>
+        <v>3015.426401072165</v>
       </c>
       <c r="M16" t="n">
-        <v>2729.020251757732</v>
+        <v>3032.244724175258</v>
       </c>
       <c r="N16" t="n">
-        <v>2743.266360739176</v>
+        <v>3048.073734154639</v>
       </c>
       <c r="O16" t="n">
-        <v>2756.918881846392</v>
+        <v>3063.243202051547</v>
       </c>
       <c r="P16" t="n">
-        <v>2769.681021142268</v>
+        <v>3077.423356824743</v>
       </c>
       <c r="Q16" t="n">
-        <v>2781.552778626805</v>
+        <v>3090.614198474228</v>
       </c>
     </row>
     <row r="17">
@@ -1435,49 +1435,49 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>69325.46811064841</v>
+        <v>74433.79492638713</v>
       </c>
       <c r="D19" t="n">
-        <v>103911.2408502672</v>
+        <v>111973.390729408</v>
       </c>
       <c r="E19" t="n">
-        <v>105293.1591726053</v>
+        <v>113508.8555320059</v>
       </c>
       <c r="F19" t="n">
-        <v>106286.4129667859</v>
+        <v>114612.4708588732</v>
       </c>
       <c r="G19" t="n">
-        <v>107201.9338553349</v>
+        <v>115629.7162905943</v>
       </c>
       <c r="H19" t="n">
-        <v>108039.7218382524</v>
+        <v>116560.5918271693</v>
       </c>
       <c r="I19" t="n">
-        <v>108817.0508945676</v>
+        <v>117424.2907786307</v>
       </c>
       <c r="J19" t="n">
-        <v>109352.5442444737</v>
+        <v>118019.2833896374</v>
       </c>
       <c r="K19" t="n">
-        <v>109853.4896363212</v>
+        <v>118575.8893805791</v>
       </c>
       <c r="L19" t="n">
-        <v>110328.524059625</v>
+        <v>119103.7054064722</v>
       </c>
       <c r="M19" t="n">
-        <v>110769.0105248702</v>
+        <v>119593.1348123003</v>
       </c>
       <c r="N19" t="n">
-        <v>111183.5860215717</v>
+        <v>120053.7742530796</v>
       </c>
       <c r="O19" t="n">
-        <v>111580.8875392439</v>
+        <v>120495.2203838266</v>
       </c>
       <c r="P19" t="n">
-        <v>111952.2780883723</v>
+        <v>120907.8765495247</v>
       </c>
       <c r="Q19" t="n">
-        <v>112297.7576689568</v>
+        <v>121291.7427501742</v>
       </c>
     </row>
     <row r="20">
@@ -1490,49 +1490,49 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>143963.7866467516</v>
+        <v>152198.7103596129</v>
       </c>
       <c r="D20" t="n">
-        <v>140240.0932178328</v>
+        <v>159719.2026795921</v>
       </c>
       <c r="E20" t="n">
-        <v>143519.8593914947</v>
+        <v>164349.3873169941</v>
       </c>
       <c r="F20" t="n">
-        <v>145952.6788288141</v>
+        <v>168157.8200251268</v>
       </c>
       <c r="G20" t="n">
-        <v>148233.9289188652</v>
+        <v>171932.1773474057</v>
       </c>
       <c r="H20" t="n">
-        <v>150365.7876616476</v>
+        <v>175691.8835338307</v>
       </c>
       <c r="I20" t="n">
-        <v>152389.1729343324</v>
+        <v>179501.6431798694</v>
       </c>
       <c r="J20" t="n">
-        <v>153902.2383066264</v>
+        <v>182936.7405224877</v>
       </c>
       <c r="K20" t="n">
-        <v>155370.1476225789</v>
+        <v>186538.6909225147</v>
       </c>
       <c r="L20" t="n">
-        <v>156815.3507305751</v>
+        <v>190360.3865653356</v>
       </c>
       <c r="M20" t="n">
-        <v>158222.0942828098</v>
+        <v>194416.0032211188</v>
       </c>
       <c r="N20" t="n">
-        <v>159613.4977777264</v>
+        <v>198767.1539684662</v>
       </c>
       <c r="O20" t="n">
-        <v>161013.0665597539</v>
+        <v>203480.7119827016</v>
       </c>
       <c r="P20" t="n">
-        <v>162406.2083267354</v>
+        <v>208586.720073213</v>
       </c>
       <c r="Q20" t="n">
-        <v>163798.0586887416</v>
+        <v>214143.4050505928</v>
       </c>
     </row>
     <row r="21">
@@ -1603,46 +1603,46 @@
         <v>60750</v>
       </c>
       <c r="D22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="E22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="F22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="G22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="H22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="I22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="J22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="K22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="L22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="M22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="N22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="O22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="P22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
       <c r="Q22" t="n">
-        <v>81378</v>
+        <v>105678</v>
       </c>
     </row>
     <row r="23">
@@ -1658,46 +1658,46 @@
         <v>4860</v>
       </c>
       <c r="D23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="E23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="F23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="G23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="H23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="I23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="J23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="K23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="L23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="M23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="N23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="O23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="P23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>6510.24</v>
+        <v>8454.24</v>
       </c>
     </row>
     <row r="24">
@@ -1823,46 +1823,46 @@
         <v>75210</v>
       </c>
       <c r="D26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="E26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="F26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="G26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="H26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="I26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="J26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="K26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="L26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="M26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="N26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="O26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="P26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>114288.24</v>
+        <v>140532.24</v>
       </c>
     </row>
     <row r="27">
@@ -1875,49 +1875,49 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>68753.78664675163</v>
+        <v>76988.71035961289</v>
       </c>
       <c r="D27" t="n">
-        <v>25951.85321783282</v>
+        <v>19186.96267959208</v>
       </c>
       <c r="E27" t="n">
-        <v>29231.61939149465</v>
+        <v>23817.14731699409</v>
       </c>
       <c r="F27" t="n">
-        <v>31664.43882881409</v>
+        <v>27625.58002512681</v>
       </c>
       <c r="G27" t="n">
-        <v>33945.68891886515</v>
+        <v>31399.93734740571</v>
       </c>
       <c r="H27" t="n">
-        <v>36077.54766164756</v>
+        <v>35159.64353383071</v>
       </c>
       <c r="I27" t="n">
-        <v>38100.93293433239</v>
+        <v>38969.40317986938</v>
       </c>
       <c r="J27" t="n">
-        <v>39613.99830662635</v>
+        <v>42404.50052248774</v>
       </c>
       <c r="K27" t="n">
-        <v>41081.90762257889</v>
+        <v>46006.45092251466</v>
       </c>
       <c r="L27" t="n">
-        <v>42527.11073057506</v>
+        <v>49828.14656533563</v>
       </c>
       <c r="M27" t="n">
-        <v>43933.85428280979</v>
+        <v>53883.76322111877</v>
       </c>
       <c r="N27" t="n">
-        <v>45325.25777772635</v>
+        <v>58234.91396846625</v>
       </c>
       <c r="O27" t="n">
-        <v>46724.8265597539</v>
+        <v>62948.47198270159</v>
       </c>
       <c r="P27" t="n">
-        <v>48117.96832673535</v>
+        <v>68054.48007321302</v>
       </c>
       <c r="Q27" t="n">
-        <v>49509.81868874158</v>
+        <v>73611.1650505928</v>
       </c>
     </row>
     <row r="28">
@@ -2150,49 +2150,49 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>30554.7675331542</v>
+        <v>38789.69124601546</v>
       </c>
       <c r="D32" t="n">
-        <v>-21956.05708352957</v>
+        <v>-28720.9476217703</v>
       </c>
       <c r="E32" t="n">
-        <v>-18676.29090986773</v>
+        <v>-24090.7629843683</v>
       </c>
       <c r="F32" t="n">
-        <v>-16243.47147254829</v>
+        <v>-20282.33027623557</v>
       </c>
       <c r="G32" t="n">
-        <v>-13962.22138249723</v>
+        <v>-16507.97295395668</v>
       </c>
       <c r="H32" t="n">
-        <v>16659.76528611766</v>
+        <v>15741.86115830081</v>
       </c>
       <c r="I32" t="n">
-        <v>18683.15055880249</v>
+        <v>19551.62080433948</v>
       </c>
       <c r="J32" t="n">
-        <v>20196.21593109645</v>
+        <v>22986.71814695784</v>
       </c>
       <c r="K32" t="n">
-        <v>21664.12524704899</v>
+        <v>26588.66854698476</v>
       </c>
       <c r="L32" t="n">
-        <v>23109.32835504516</v>
+        <v>30410.36418980573</v>
       </c>
       <c r="M32" t="n">
-        <v>24516.07190727989</v>
+        <v>34465.98084558887</v>
       </c>
       <c r="N32" t="n">
-        <v>25907.47540219645</v>
+        <v>38817.13159293635</v>
       </c>
       <c r="O32" t="n">
-        <v>27307.044184224</v>
+        <v>43530.68960717169</v>
       </c>
       <c r="P32" t="n">
-        <v>28700.18595120545</v>
+        <v>48636.69769768312</v>
       </c>
       <c r="Q32" t="n">
-        <v>30092.03631321168</v>
+        <v>54193.38267506289</v>
       </c>
     </row>
     <row r="33">
@@ -2205,49 +2205,49 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>13.69507957181281</v>
+        <v>17.38608901552959</v>
       </c>
       <c r="D33" t="n">
-        <v>-9.841015760173292</v>
+        <v>-12.87313551416203</v>
       </c>
       <c r="E33" t="n">
-        <v>-8.370978108062181</v>
+        <v>-10.79782117990632</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.280553978937633</v>
+        <v>-9.090827699259538</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.258065378016201</v>
+        <v>-7.399107289180288</v>
       </c>
       <c r="H33" t="n">
-        <v>7.467142762370522</v>
+        <v>7.055725131517756</v>
       </c>
       <c r="I33" t="n">
-        <v>8.374052699871601</v>
+        <v>8.763313364528113</v>
       </c>
       <c r="J33" t="n">
-        <v>9.05223003008483</v>
+        <v>10.30297264660365</v>
       </c>
       <c r="K33" t="n">
-        <v>9.710167776276545</v>
+        <v>11.91741783223847</v>
       </c>
       <c r="L33" t="n">
-        <v>10.3579282784621</v>
+        <v>13.63035594806253</v>
       </c>
       <c r="M33" t="n">
-        <v>10.98845066303219</v>
+        <v>15.44814077504419</v>
       </c>
       <c r="N33" t="n">
-        <v>11.61209741664287</v>
+        <v>17.39838816767179</v>
       </c>
       <c r="O33" t="n">
-        <v>12.23940396758601</v>
+        <v>19.51107163028576</v>
       </c>
       <c r="P33" t="n">
-        <v>12.86382983935626</v>
+        <v>21.7996567755662</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.48767688512575</v>
+        <v>24.29024168471793</v>
       </c>
     </row>
     <row r="34">
@@ -2257,52 +2257,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3553.815269689905</v>
+        <v>6446.184730310095</v>
       </c>
       <c r="C34" t="n">
-        <v>-84552.86300622561</v>
+        <v>-66317.93929336435</v>
       </c>
       <c r="D34" t="n">
-        <v>-106508.9200897552</v>
+        <v>-95038.88691513466</v>
       </c>
       <c r="E34" t="n">
-        <v>-125185.2109996229</v>
+        <v>-119129.649899503</v>
       </c>
       <c r="F34" t="n">
-        <v>-141428.6824721712</v>
+        <v>-139411.9801757385</v>
       </c>
       <c r="G34" t="n">
-        <v>-155390.9038546684</v>
+        <v>-155919.9531296952</v>
       </c>
       <c r="H34" t="n">
-        <v>-138731.1385685508</v>
+        <v>-140178.0919713944</v>
       </c>
       <c r="I34" t="n">
-        <v>-120047.9880097483</v>
+        <v>-120626.4711670549</v>
       </c>
       <c r="J34" t="n">
-        <v>-99851.77207865182</v>
+        <v>-97639.75302009709</v>
       </c>
       <c r="K34" t="n">
-        <v>-78187.64683160283</v>
+        <v>-71051.08447311234</v>
       </c>
       <c r="L34" t="n">
-        <v>-55078.31847655767</v>
+        <v>-40640.72028330661</v>
       </c>
       <c r="M34" t="n">
-        <v>-30562.24656927779</v>
+        <v>-6174.739437717741</v>
       </c>
       <c r="N34" t="n">
-        <v>-4654.771167081337</v>
+        <v>32642.39215521861</v>
       </c>
       <c r="O34" t="n">
-        <v>22652.27301714266</v>
+        <v>76173.0817623903</v>
       </c>
       <c r="P34" t="n">
-        <v>51352.45896834812</v>
+        <v>124809.7794600734</v>
       </c>
       <c r="Q34" t="n">
-        <v>81444.49528155979</v>
+        <v>179003.1621351363</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="218">
   <si>
     <t>Cumulative Sum</t>
   </si>
@@ -50,241 +50,241 @@
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(231344.81, 241344.81), mean=[231344.81, 241344.81], var=[0, 25000000.0])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(72761.5737, 128864.7849), mean=[82463.1169, 115300.0707], var=[31688622.9385, 126695751.3765])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(49422.5472, 54793.9278), mean=[51157.1338, 52732.4211], var=[1013009.9899, 1388633.7033])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-72766.805, -18884.3999), mean=[-63065.2619, -32449.1141], var=[31688622.9385, 105094087.4423])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(169197.4766, 224681.2162), mean=[180611.0568, 211116.502], var=[43859685.728, 95422799.3558])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-31.4538, -7.8247), mean=[-27.2603, -13.4451], var=[0.0, 0.009])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(146857.4275, 261492.7354), mean=[166438.4178, 233967.1843], var=[129089533.7557, 541979909.8494])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(71951.205, 92721.8849), mean=[74051.794, 90211.9562], var=[0.0, 85808945.8833])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(97404.3985, 110138.258), mean=[97404.3985, 110138.258], var=[0, 40537794.7437])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-60368.1674, 20762.601), mean=[-40787.177, -6762.9501], var=[4189527.5824, 881890953.5667])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(124067.9467, 251818.9283), mean=[147104.4059, 224293.3772], var=[0.0, 2686506217.6383])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-25.0132, 8.9747), mean=[-16.9, -2.9233], var=[22.1623, 47.6622])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(148059.3452, 264848.7108), mean=[167800.5912, 236969.8992], var=[131211182.159, 574105097.2229])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(70358.572, 91134.5645), mean=[72900.7128, 89016.7838], var=[1510023.515, 47910170.4758])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-74114.0477, 41397.6077), mean=[-54372.8017, 13518.796], var=[0.0, 2159303777.3167])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(110985.6413, 249005.2808), mean=[138864.453, 221479.7297], var=[255090198.5699, 814653819.2598])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-30.7088, 17.8943), mean=[-22.5291, 5.8436], var=[22.5266, 95.0491])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(149111.2228, 267785.7465), mean=[168992.7191, 239597.7732], var=[133082166.5951, 603045195.3361])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(69866.4242, 89418.114), mean=[71999.2506, 86847.7821], var=[0.0, 74541120.4496])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-56029.5914, 30359.383), mean=[-36148.095, 2171.4097], var=[1733497.8862, 1027780337.4655])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(95764.2373, 256599.1109), mean=[123643.0489, 228411.1376], var=[0.0, 4484561762.5268])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-23.2156, 13.123), mean=[-14.9778, 0.9386], var=[22.8478, 49.9839])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(150032.2142, 270357.3239), mean=[170036.5094, 241898.6583], var=[134731218.2438, 628994267.0973])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(68603.0597, 87621.9844), mean=[71198.0748, 85475.9846], var=[1550533.3037, 35871493.7396])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-68572.1605, 48555.9846), mean=[-48567.8653, 20097.3189], var=[0.0, 2216640896.1612])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(90599.8552, 258375.1888), mean=[119058.5209, 230187.2154], var=[267515795.1984, 1775814041.5988])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-28.4125, 20.9886), mean=[-20.1238, 8.6872], var=[23.1309, 97.9998])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(150841.4735, 272616.925), mean=[170953.67, 243920.4065], var=[136188592.6362, 652264935.1906])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(67953.773, 86361.535), mean=[70111.3482, 83744.8312], var=[0.0, 64754698.5447])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-52386.6894, 38247.1406), mean=[-32274.493, 9550.6221], var=[646432.1041, 1154465314.7821])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(81013.4431, 271388.0042), mean=[109472.1088, 242691.4857], var=[0.0, 6624924041.5322])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-21.7062, 16.5325), mean=[-13.3728, 4.1283], var=[23.3811, 51.8037])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(151558.1549, 274618.0312), mean=[171765.9089, 245710.87], var=[137485791.5013, 673261439.5955])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(66968.8844, 84419.6514), mean=[69604.7957, 82251.8251], var=[1582233.8823, 26691557.1455])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-63800.2338, 54369.0747), mean=[-43592.4798, 25461.9135], var=[0.0, 2251691639.9248])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(82458.7633, 276990.4157), mean=[111365.9244, 248293.8973], var=[277255484.1173, 2984814986.5334])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-26.4353, 23.5013), mean=[-18.0623, 11.006], var=[23.6038, 99.5828])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(152201.4123, 276414.1243), mean=[172494.9339, 247317.9007], var=[138655328.5321, 692400050.1989])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(66207.2884, 83553.8262), mean=[68384.3156, 80900.6751], var=[0.0, 56332893.4519])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-30615.7256, 63516.589), mean=[-10322.2039, 34420.3654], var=[198923.0277, 1264970574.0898])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(96371.1757, 313194.3653), mean=[125278.3369, 284098.1417], var=[0.0, 8903711685.3126])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-12.6855, 27.4554), mean=[-4.277, 14.8784], var=[23.8046, 53.2568])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(152790.3999, 278058.686), mean=[173162.4532, 248789.3506], var=[139730539.0708, 710167241.0837])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(65466.1252, 81511.9849), mean=[68135.0616, 79326.5331], var=[1608067.2111, 19676589.5796])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-40960.5309, 77910.979), mean=[-20588.4776, 48641.6436], var=[0.0, 2273668083.6876])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(122140.2602, 340734.313), mean=[151409.5955, 311638.0894], var=[285032890.944, 4355319518.6579])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-16.9718, 33.6774), mean=[-8.5307, 21.0256], var=[23.9892, 103.4228])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(153344.2717, 279605.1979), mean=[173790.1745, 250173.0718], var=[140745433.7121, 727087297.5471])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(55728.5065, 81395.6498), mean=[57921.8806, 78711.8693], var=[0.0, 135551751.801])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-18994.0843, 68865.8391), mean=[1451.8186, 39433.713], var=[3003919.157, 1049954060.1377])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(140309.2536, 380914.0088), mean=[169578.589, 351481.8827], var=[0.0, 11245155595.2117])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-7.8701, 29.7676), mean=[0.6016, 17.0454], var=[24.1634, 54.4936])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(153882.1817, 281107.1418), mean=[174399.806, 251516.9163], var=[141734595.8264, 743716577.8131])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(64502.2148, 69992.278), mean=[67200.4117, 67791.2098], var=[1631130.5871, 2451144.9145])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-28317.8093, 81864.8242), mean=[-7800.1851, 52274.5988], var=[0.0, 1874476021.8597])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(171141.2545, 411381.6349), mean=[200731.48, 381949.5088], var=[291652025.6999, 5815799176.4645])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-11.7333, 35.3865), mean=[-3.232, 22.596], var=[24.3332, 73.2471])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(154423.2841, 282617.9993), mean=[175013.0553, 252868.7362], var=[142733123.0005, 760648637.302])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(54305.0427, 79105.0117), mean=[56513.8506, 76392.3129], var=[0.0, 125426111.2903])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-16491.608, 74169.2785), mean=[4098.1632, 44420.0155], var=[1798431.0311, 1133863341.9445])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(193208.8262, 455325.7909), mean=[222799.0517, 425576.5278], var=[0.0, 13599351445.2056])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-6.8332, 32.0601), mean=[1.6981, 19.2008], var=[24.5047, 55.6743])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(154986.7329, 284191.252), mean=[175651.6307, 254276.3834], var=[143776612.3988, 778497012.0687])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(63207.4069, 68756.0587), mean=[65424.2741, 66028.2591], var=[1398843.3514, 2906817.8598])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-24830.5234, 86091.4843), mean=[-4165.6257, 56176.6157], var=[0.0, 1897220197.1074])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(228858.3857, 488581.9648), mean=[258773.2543, 458832.7017], var=[297971104.5261, 7306489579.9717])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-10.2884, 37.2135), mean=[-1.726, 24.2826], var=[24.6838, 74.3223])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(155591.6822, 285880.3818), mean=[176337.2399, 255787.71], var=[144901190.0419, 797897270.17])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(53042.2036, 77088.8579), mean=[55267.7238, 74344.8452], var=[0.0, 116902071.3873])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-14060.3708, 79447.8149), mean=[6685.1868, 49355.1431], var=[982774.0579, 1222117940.1562])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(254683.2535, 536417.0684), mean=[284598.1221, 506324.3966], var=[0.0, 15936754343.9226])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-5.8258, 34.3417), mean=[2.77, 21.334], var=[24.8769, 56.967])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(156257.2861, 287738.8702), mean=[177091.5909, 257450.5681], var=[146143584.0051, 819526559.9574])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(61087.9133, 67795.482), mean=[63322.9541, 65033.6308], var=[604149.6579, 4991318.7468])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-21440.4767, 90599.6791), mean=[-606.1719, 60311.377], var=[0.0, 1935133610.5166])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(295253.0577, 572527.1923), mean=[325541.3598, 542434.5205], var=[304890029.6349, 8777029308.0246])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-8.8838, 39.1622), mean=[-0.2512, 26.0699], var=[25.0902, 76.2774])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(591147.1072, 967418.5133), mean=[621239.779, 937130.2112], var=[304890029.6349, 20461162412.6113])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-95.1853, 64.6461), mean=[-82.1775, 51.5538], var=[56.967, 3651.3762])</t>
+    <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0.0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(76828.3135, 126182.8811), mean=[92200.1364, 106180.0023], var=[420247.6574, 131512653.9674])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(47275.559, 61453.2046), mean=[50705.8143, 58022.9492], var=[0.0, 18689025.8833])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-80011.4588, -16479.2456), mean=[-63469.2639, -37630.1362], var=[0.0, 302130991.1895])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(113179.4789, 163153.7544), mean=[131295.5647, 145037.6686], var=[951552.4328, 122767659.1083])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-44.5416, -9.1738), mean=[-35.3327, -20.9483], var=[0.0, 0.0094])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(125459.5062, 257568.4867), mean=[175766.9521, 216737.9781], var=[105916.6191, 1087833791.1855])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(78410.7391, 104080.5162), mean=[84655.0391, 97836.2163], var=[0.0, 60459596.0369])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(104363.7687, 108998.2887), mean=104828.0207, var=[858866.2597, 1366654.2596])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-133526.8188, 28886.4588), mean=[-81428.0213, -13927.4894], var=[0.0, 2121221588.9631])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(43326.9477, 192040.2133), mean=[88439.7966, 146927.3644], var=[0.0, 1471892178.0273])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-74.3331, 16.0808), mean=[-45.3302, -7.7533], var=[0.0, 0.0657])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(127708.4946, 262185.6621), mean=[178917.7523, 220623.2254], var=[109747.9794, 1127184397.7921])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(77340.6417, 103173.5491), mean=[83656.5472, 96857.6436], var=[0.0, 60888736.2763])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-130370.8632, 34573.7316), mean=[-77357.5168, -8986.2579], var=[0.0, 2182056199.333])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-22311.2804, 226613.9449), mean=[44596.4636, 159706.2009], var=[0.0, 4924494986.3997])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-72.5762, 19.2469), mean=[-43.0642, -5.0026], var=[0.0, 0.0676])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(129676.7328, 266226.457), mean=[181675.2255, 224023.4617], var=[113156.9106, 1162196378.0529])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(76293.2249, 102268.8983), mean=[82671.9658, 95890.1574], var=[0.0, 61264042.8506])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-127497.9742, 39661.9434), mean=[-73683.9866, -4551.1144], var=[0.0, 2235986384.5263])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-84150.3896, 266275.8883), mean=[3040.3755, 179085.1231], var=[0.0, 10892323453.1846])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-70.9769, 22.0794), mean=[-41.0192, -2.5336], var=[0.0, 0.0693])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(131400.0613, 269764.452), mean=[184089.5838, 227000.6034], var=[116184.4744, 1193291461.569])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(75271.3478, 101372.0227), mean=[81705.2077, 94938.1628], var=[0.0, 61592541.6618])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-124877.7701, 44221.8154), mean=[-70362.5345, -563.1485], var=[0.0, 2283741866.881])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-142558.3168, 310497.7037), mean=[-36235.2788, 204174.6657], var=[0.0, 19692199322.9544])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-69.5183, 24.6179), mean=[-39.1702, -0.3135], var=[0.0, 0.0708])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(132914.3204, 272873.2275), mean=[186211.0389, 229616.5667], var=[118877.7324, 1220953004.2476])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(74278.0549, 100488.5664), mean=[80760.4312, 94006.1901], var=[0.0, 61881293.6934])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-122480.0547, 48323.8838), mean=[-67348.4869, 3036.3204], var=[0.0, 2326115957.769])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-197855.936, 358821.5875), mean=[-73289.0547, 234254.7062], var=[0.0, 31572246833.6262])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-68.1835, 26.9015), mean=[-37.4923, 1.6903], var=[0.0, 0.0721])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(134255.3507, 275626.3639), mean=[188089.8029, 231933.2679], var=[121288.6519, 1245714743.1656])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(73316.5666, 99624.3496), mean=[79841.9743, 93098.9419], var=[0.0, 62136898.0544])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-120274.8076, 52038.5086), mean=[-64597.2535, 6305.7607], var=[0.0, 2363958827.8517])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-250317.235, 410860.0961), mean=[-108257.5712, 268800.4323], var=[0.0, 46749605281.3725])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-66.9559, 28.9693), mean=[-35.9607, 3.5104], var=[0.0, 0.0733])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(135458.9926, 278097.4419), mean=[189776.0878, 234012.6234], var=[123473.1833, 1268151326.9813])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(72390.2705, 98785.3596), mean=[78954.3458, 92221.2843], var=[0.0, 62366338.5907])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-90926.6444, 82741.414), mean=[-34758.9583, 36609.0256], var=[0.0, 2398181746.5403])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-272863.9511, 493601.5101), mean=[-113956.4546, 334694.0135], var=[0.0, 65414027595.8631])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-50.618, 46.0614), mean=[-19.35, 20.3799], var=[0.0, 0.0743])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(136561.0866, 280360.0418), mean=[191320.1054, 235916.5494], var=[125490.5114, 1288870621.8935])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(71502.713, 97977.7424), mean=[78102.2407, 91378.2147], var=[0.0, 62576376.6494])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-89016.9333, 85891.5714), mean=[-32400.361, 39393.226], var=[0.0, 2429730372.1801])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-292982.3237, 579493.0814), mean=[-117777.9364, 404288.6942], var=[0.0, 87727161113.707])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-49.5549, 47.815), mean=[-18.037, 21.9298], var=[0.0, 0.0753])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(137597.473, 282487.7441), mean=[192772.0678, 237706.9621], var=[127402.4788, 1308507793.1493])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(64068.9257, 93333.5878), mean=[70701.8353, 86700.6781], var=[0.0, 85845266.4635])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-83336.3922, 95453.0611), mean=[-26297.5944, 48610.527], var=[0.0, 2590548607.0045])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-310806.6512, 668357.4766), mean=[-119778.9667, 477329.7922], var=[0.0, 113829611741.7491])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-46.3926, 53.1378), mean=[-14.6396, 27.061], var=[0.0, 0.0803])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(138603.9924, 284554.1294), mean=[194182.1869, 239445.778], var=[129273.1829, 1327721162.0985])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(63270.0808, 92607.7507), mean=[69935.4452, 85942.3863], var=[0.0, 86067326.7653])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-81604.0357, 98318.2912), mean=[-24155.1163, 51141.4652], var=[0.0, 2620465037.4266])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-326424.9661, 760087.102), mean=[-119986.9305, 553649.0665], var=[0.0, 143847701897.598])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-45.4282, 54.7329), mean=[-13.4469, 28.47], var=[0.0, 0.0812])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(139616.4852, 286632.7781), mean=[195600.6747, 241194.9132], var=[131168.7449, 1347189838.7969])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(62521.4894, 91932.6004), mean=[69219.5352, 85234.5546], var=[0.0, 86290472.7976])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-79916.3926, 101145.5313), mean=[-22054.8609, 53632.3882], var=[0.0, 2650730172.1961])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-339879.1706, 854643.9674), mean=[-118401.6411, 633166.4379], var=[0.0, 177895593476.5012])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-44.4887, 56.3068), mean=[-12.2777, 29.8566], var=[0.0, 0.0821])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(140670.7918, 288797.2707), mean=[197077.7431, 243016.2841], var=[133157.2527, 1367613130.157])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(61827.2577, 91314.8428), mean=[68559.3715, 84582.7289], var=[0.0, 86522922.2372])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-78244.3283, 104004.2556), mean=[-19953.0506, 56140.877], var=[0.0, 2682427794.6984])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-351165.1666, 952059.5572), mean=[-114975.4243, 715869.8148], var=[0.0, 216098154985.2548])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-43.5579, 57.8982), mean=[-11.1077, 31.2531], var=[0.0, 0.0831])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(141802.7528, 291121.1877), mean=[198663.604, 244971.807], var=[135308.8758, 1389711723.6462])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(61191.6148, 90761.3066), mean=[67960.3422, 83992.5792], var=[0.0, 86772398.5642])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-76558.8312, 106963.8154), mean=[-17806.1156, 58724.3614], var=[0.0, 2716669129.5428])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-360232.9779, 1052434.7067), mean=[-109613.1184, 801814.8472], var=[0.0, 258614992849.8098])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-42.6196, 59.5457), mean=[-9.9125, 32.6913], var=[0.0, 0.0842])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(143048.2086, 293678.1095), mean=[200408.4695, 247123.3981], var=[137696.1535, 1414230646.5338])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(60618.9066, 90278.9374), mean=[67427.9626, 83469.8815], var=[0.0, 87046833.5619])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-74831.0063, 110093.4455), mean=[-15570.5035, 61440.1639], var=[0.0, 2754591622.9547])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-366986.8675, 1155939.4863), mean=[-102170.53, 891123.1489], var=[0.0, 305612635617.4929])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-41.6577, 61.288), mean=[-8.668, 34.2032], var=[0.0, 0.0854])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-2065213.5105, 2953412.0751), mean=[-1748950.4471, 2526826.1718], var=[0.0, 4971832845291.078])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1662.8062, 1131.0154), mean=[-1486.7455, 893.5391], var=[0.0, 1540792.9162])</t>
   </si>
   <si>
     <t>Yield Crop 1</t>
@@ -374,352 +374,301 @@
     <t>Financial Balance</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(3317.397, 5875.2941), mean=[3759.7166, 5256.8421], var=[65870.9746, 263361.7951])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1113.293, 1761.4941), mean=[1261.7321, 1576.0737], var=[2.3746, 60523.2987])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(13009.3999, 19584.3138), mean=[14743.9866, 17522.8071], var=[1013009.9899, 1398891.6688])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3535.6972, 7268.1221), mean=[4241.9893, 6385.8679], var=[167954.0588, 513976.1809])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(22090.6594, 75973.0645), mean=[31792.2025, 62408.3503], var=[0.0, 459717631.5352])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-44499.5391, 9382.866), mean=[-34797.996, -4181.8482], var=[0.0, 459717631.5352])</t>
+    <t>Pbox: ~ (range=[(3377.0687, 5546.5003), mean=[4090.1072, 4617.8839], var=[2059.9727, 226745.2202])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1255.2382, 1752.3636), mean=1503.8009, var=4834.0111)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(13243.4068, 18488.3342), mean=15865.8705, var=538089.8302)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3628.8745, 7674.0793), mean=[5111.5598, 6191.3941], var=[1249.703, 734568.2353])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(9340.7095, 13731.0975), mean=11535.9035, var=[0.0, 0.0003])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(15375.1089, 78907.3221), mean=[31917.3038, 57756.4315], var=[0.0, 302130991.1895])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-43404.9331, 20127.2801), mean=[-26862.7382, -1023.6105], var=[0.0, 302130991.1895])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-0.0, -0.0), mean=-0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(20888.385, 64770.7901), mean=[30589.9281, 51206.0759], var=[76181.789, 273089784.4507])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6695.6274, 11922.1612), mean=[7588.3777, 10667.1969], var=[268337.738, 1126610.801])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0.0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(23710.176, 39516.96), mean=[23710.176, 39516.96], var=[0, 0.16])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2226.0225, 3522.0965), mean=[2522.8255, 3151.3495], var=[9.4937, 241970.6625])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(15754.4174, 23844.3224), mean=[17855.0064, 21334.3937], var=[2076444.7208, 2121018.6409])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7069.6045, 14532.5651), mean=[8481.8313, 12768.5033], var=[671476.204, 2054864.1542])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16588.242, 18564.8417), mean=[16588.242, 18564.8417], var=[0, 0.0056])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(74906.2225, 168770.8505), mean=[94487.2128, 141245.2994], var=[500.8204, 1290081256.5148])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(673.2, 5049.0), mean=[673.2, 5049.0], var=[0, 0.0011])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(27860.1985, 36218.258), mean=[27860.1985, 36218.258], var=[0, 121279.7906])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-22498.176, 58632.5924), mean=[-2917.1856, 31107.0413], var=[129089533.7557, 249528287.5404])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(0.0, 0.0), mean=-0.0, var=0.0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(30520.2176, 155533.3911), mean=[50101.2079, 128007.84], var=[129089533.7557, 793464182.0553])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6750.4261, 12075.1692), mean=[7650.4829, 10804.0987], var=[272747.9974, 1193389.2598])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(21931.9128, 38529.036), mean=[21931.9128, 38529.036], var=[0, 763059.5527])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(15883.3555, 24150.3384), mean=[18001.1362, 21608.1975], var=[2132706.6624, 2175809.9373])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(61160.3422, 189405.8571), mean=[80901.5882, 161527.0455], var=[0.0, 2784667718.9286])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-36244.0563, 79267.5991), mean=[-16502.8103, 51388.7874], var=[131211182.159, 546171335.708])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(26368.2412, 111079.806), mean=[53893.7923, 83200.9943], var=255090198.5699)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6798.384, 12209.0766), mean=[7704.8352, 10923.9106], var=[276637.2029, 1253546.8903])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(21383.615, 35639.3583), mean=[21383.615, 35639.3583], var=[0, 562953.5114])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(15996.1977, 24418.1532), mean=[18129.024, 21847.8213], var=[2182698.9488, 2224334.7316])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(79244.7985, 178367.6325), mean=[99126.2949, 150179.6591], var=[0.0, 1466400536.7909])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-18159.6, 68229.3744), mean=[1721.8964, 40041.4011], var=[133082166.5951, 262869264.7092])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-707.4087, 111778.7264), mean=[27171.4029, 83590.7531], var=[261679826.0202, 267712819.6797])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6840.3745, 12326.3218), mean=[7752.4244, 11028.8142], var=[280065.078, 1307487.0899])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(19779.8439, 34748.3743), mean=[19779.8439, 34748.3743], var=[0, 620656.2463])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16094.9988, 24652.6435), mean=[18240.9987, 22057.6284], var=[2227048.3442, 2267260.9465])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(66702.2294, 196564.234), mean=[86706.5246, 168105.5684], var=[0.0, 2849615172.0057])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-30702.1691, 86425.976), mean=[-10697.8739, 57967.3103], var=[134731218.2438, 557014915.8362])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-13169.3807, 103606.1992), mean=[15018.5926, 75147.5335], var=[267515795.1984, 318246837.1741])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6877.2708, 12429.3431), mean=[7794.2403, 11120.9912], var=[283094.5145, 1355859.7058])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(19285.3478, 32142.2463), mean=[19285.3478, 32142.2463], var=[0, 457894.2914])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16181.8137, 24858.6862), mean=[18339.3889, 22241.9824], var=[2266462.5848, 2305318.093])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(82887.7005, 186255.39), mean=[102999.8969, 157558.8716], var=[0.0, 1617772925.4814])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-14516.698, 76117.1319), mean=[5595.4984, 47420.6135], var=[136188592.6362, 273607854.479])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-5697.8216, 81453.7065), mean=[22760.8441, 52757.1881], var=272678435.6735)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6909.9463, 12520.5789), mean=[7831.2724, 11202.6233], var=[285790.995, 1399505.0296])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(17838.9467, 31338.6901), mean=[17838.9467, 31338.6901], var=[0, 504828.4563])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16258.6971, 25041.1579), mean=[18426.5234, 22405.2465], var=[2301715.6028, 2339286.0324])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(71474.1561, 202377.3241), mean=[91681.9101, 173470.1629], var=[0.0, 2889219035.8634])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-25930.2424, 92239.0661), mean=[-5722.4884, 63331.9049], var=[137485791.5013, 560986396.7409])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-39739.5641, 105588.5844), mean=[-11043.0457, 76681.4233], var=[277255484.1173, 933529564.1774])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6939.2741, 12602.4677), mean=[7864.5107, 11275.8921], var=[288222.1055, 1439288.3593])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(17392.973, 28988.2884), mean=[17392.973, 28988.2884], var=[0, 372441.3791])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16327.7038, 25204.9353), mean=[18504.731, 22551.7843], var=[2333635.0848, 2369985.5124])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(85994.1239, 192860.2981), mean=[106287.6456, 163764.0744], var=[0.0, 1748715297.5749])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-11410.2746, 82722.04), mean=[8883.2471, 53625.8164], var=[138655328.5321, 282393041.831])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(17158.5365, 81170.0617), mean=[46065.6977, 52073.8381], var=[281340732.7079, 281825352.5256])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6966.1277, 12677.4477), mean=[7894.9447, 11342.9795], var=[290457.14, 1476220.9259])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16088.5, 28263.5811), mean=[16088.5, 28263.5811], var=[0, 410616.6204])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16390.8886, 25354.8954), mean=[18576.3404, 22685.959], var=[2363092.3622, 2398270.4777])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(75649.3186, 207254.688), mean=[96021.3719, 177985.3527], var=[0.0, 2913989055.7008])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-21755.0799, 97116.43), mean=[-1383.0266, 67847.0946], var=[139730539.0708, 561263550.0456])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-17982.9164, 152883.8378), mean=[11113.3072, 123614.5025], var=[285032890.944, 1801063844.0697])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6991.3802, 12747.9574), mean=[7923.5642, 11406.0671], var=[292566.7962, 1511392.5587])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(15686.2875, 26143.8126), mean=[15686.2875, 26143.8126], var=[0, 302935.8161])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16450.3063, 25495.9147), mean=[18643.6804, 22812.1342], var=[2390994.6349, 2425022.1555])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(9670.1428, 16983.5619), mean=[9670.1428, 16983.5619], var=[0, 13371524.7336])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(97615.7652, 198209.5482), mean=[118061.6681, 168777.4221], var=[0.0, 1492239934.7771])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(211.3667, 88071.2901), mean=[20657.2696, 58639.164], var=[140745433.7121, 285967326.8371])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(50211.1177, 133889.7535), mean=[79643.2438, 104620.4182], var=[55608459.2855, 814397595.2942])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7015.9049, 12816.435), mean=[7951.3589, 11467.3366], var=[294622.9623, 1545959.7565])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(14509.816, 25490.2172), mean=[14509.816, 25490.2172], var=[0, 333986.7372])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16508.0116, 25632.8701), mean=[18709.0798, 22934.6732], var=[2418279.528, 2451144.9145])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(88292.0402, 211208.5332), mean=[108809.6644, 181618.3078], var=[0.0, 2458049800.6975])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-9112.3583, 101070.2752), mean=[11405.2659, 71480.0498], var=[141734595.8264, 388071139.4986])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(21893.3084, 215754.5777), mean=[51325.4345, 186164.3523], var=[291652025.6999, 2838979118.6009])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7040.5753, 12885.3191), mean=[7979.3186, 11528.9697], var=[296698.5955, 1581156.34])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(14147.0706, 23578.451), mean=[14147.0706, 23578.451], var=[0, 246401.4844])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16566.0594, 25770.6382), mean=[18774.8674, 23057.9395], var=[2445911.9811, 2477563.8998])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(100118.2414, 203512.9876), mean=[120708.0127, 173763.7245], var=[0.0, 1592520114.4653])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2713.843, 93374.7295), mean=[23303.6142, 63625.4665], var=[142733123.0005, 292899628.9721])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(95428.313, 199262.9697), mean=[125177.576, 169672.7442], var=[4850569.6568, 1454732945.5842])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7066.2644, 12957.048), mean=[8008.433, 11593.1482], var=[298867.6914, 1618257.6631])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(13086.0403, 22988.9897), mean=[13086.0403, 22988.9897], var=[0, 271657.6366])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16626.5045, 25914.0959), mean=[18843.3718, 23186.2964], var=[2474883.4705, 2505224.4405])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(91779.3261, 215435.1933), mean=[112444.2238, 185520.3247], var=[0.0, 2484024261.4479])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-5625.0724, 105296.9353), mean=[15039.8253, 75382.0667], var=[143776612.3988, 391386467.3666])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(70597.7896, 285354.454), mean=[100347.0526, 255439.5853], var=[297971104.5261, 3988065857.8436])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7093.8457, 13034.06), mean=[8039.6918, 11662.0536], var=[301205.3451, 1658584.8781])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(12758.8893, 21264.8155), mean=[12758.8893, 21264.8155], var=[0, 200417.6736])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16691.4016, 26068.1199), mean=[18916.9219, 23324.1073], var=[2506213.5648, 2535093.2334])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(102549.4787, 208791.5239), mean=[123295.0363, 178698.8521], var=[0.0, 1697321020.3714])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5145.0802, 98653.2659), mean=[25890.6378, 68560.5941], var=[144901190.0419, 300507528.0427])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(149358.7871, 271294.0831), mean=[179451.4588, 241379.2145], var=[0.0, 2195555221.5634])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7124.1924, 13118.7935), mean=[8074.0847, 11737.8678], var=[303787.9029, 1703545.5695])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(11801.9726, 20733.1951), mean=[11801.9726, 20733.1951], var=[0, 220960.4852])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16762.8056, 26237.5869), mean=[18997.8463, 23475.7357], var=[2540953.8129, 2568161.3])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(95169.3728, 219943.3882), mean=[116003.6776, 189655.086], var=[0.0, 2527354845.3464])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-2235.0257, 109805.1301), mean=[18599.2791, 79516.828], var=[146143584.0051, 399402735.1222])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(127918.3103, 361893.7623), mean=[158010.9821, 331605.4602], var=[304890029.6349, 5207017820.8633])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(134309.9405, 138066.3069), mean=[135681.9468, 136685.3813], var=[165134.9466, 1583689.0298])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2945864.6945, 3028254.3314), mean=[2975957.3663, 2997966.0293], var=[79441652.2609, 761867041.2402])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(274966.6553, 413317.7115), mean=[274966.6553, 413317.7115], var=[0, 4785253683.6975])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(40905.5102, 42221.0922), mean=[41276.2572, 41850.3452], var=46278.2595)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(296754.2866, 304990.0636), mean=[299498.2993, 302228.2124], var=[331858.7546, 8191228.6197])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(149825.194, 154261.2891), mean=[151589.2559, 152497.2273], var=[431366.4519, 2058716.1642])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(227937.5587, 231890.7582), mean=[227937.5587, 231890.7582], var=[0, 3906946.5986])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(985885.2639, 1161778.3369), mean=[988647.1152, 1159034.3242], var=[0.0, 7496212609.8283])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1868303.418, 2153511.1654), mean=[1898396.0898, 2123222.8633], var=[304890029.6349, 9532776417.1037])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(36408.6, 45160.2), mean=[36408.6, 45160.2], var=[0, 19147625.64])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(468051.3347, 484767.4538), mean=[468051.3347, 484767.4538], var=[0, 69857159.3991])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1506654.9347, 1532122.6538), mean=[1506654.9347, 1532122.6538], var=[0, 162151178.9748])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(295573.5536, 483709.2567), mean=[325666.2254, 453420.9545], var=[0.0, 6325373472.2804])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-25736.8797, 198238.5723), mean=[4355.7921, 167950.2702], var=[304890029.6349, 4515756420.2762])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-47.5926, 32.3231), mean=[-34.5849, 19.2308], var=[0.0, 1134.2821])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1185702.5886, 1954549.6727), mean=[1215795.2603, 1924261.3706], var=[0.0, 136536142944.3964])</t>
+    <t>Pbox: ~ (range=[(115355.5412, 178887.7544), mean=[131897.7361, 157736.8638], var=[0.0, 302130991.1895])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5514.7036, 11321.6917), mean=[7869.2279, 9426.1706], var=[1740.9481, 1890708.584])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2509.8357, 3503.8326), mean=3006.8341, var=19326.1754)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(22977.9315, 32078.1265), mean=27528.029, var=1619858.9862)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7255.8966, 15344.2413), mean=[10220.5103, 12379.6276], var=[4996.2606, 2936773.2485])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(15929.3754, 23416.6158), mean=19672.9956, var=[0.0, 0.0003])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(21378.99, 179157.7476), mean=[73477.7874, 136343.7994], var=[0.0, 1921623009.1356])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1404.72, 6039.24), mean=1868.972, var=[858866.2597, 1366654.2596])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-87619.2987, 74793.9789), mean=[-35520.5013, 31980.0307], var=[0.0, 2121221588.9631])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(31828.7224, 257774.2133), mean=[90376.9428, 204760.3193], var=[0.0, 5035923681.0693])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5613.5602, 11524.6445), mean=[8010.2917, 9595.1442], var=[1803.924, 1959101.8719])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(23389.8342, 32653.1594), mean=28021.4968, var=1678454.7333)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24534.9456, 184845.0203), mean=[77548.292, 141285.0309], var=[0.0, 1979596729.7141])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-84463.3431, 80481.2517), mean=[-31449.9967, 36921.2622], var=[0.0, 2182056199.333])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-98542.1408, 292347.9449), mean=[-11767.7873, 214324.9154], var=[0.0, 18625988738.6078])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5700.0762, 11702.2618), mean=[8133.746, 9743.0242], var=[1859.9565, 2019954.414])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(23750.3174, 33156.4086), mean=28453.363, var=1730589.9688)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(27407.8346, 189933.2321), mean=[81221.8221, 145720.1743], var=[0.0, 2031024181.098])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-81590.4541, 85569.4634), mean=[-27776.4665, 41356.4057], var=[0.0, 2235986384.5263])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-226040.1149, 332009.8883), mean=[-119173.9908, 232544.2203], var=[0.0, 42641542198.2388])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5775.8269, 11857.7781), mean=[8241.8388, 9872.5034], var=[1909.7205, 2073999.1972])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24065.9453, 33597.038), mean=28831.4916, var=1776892.6769)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(30028.0386, 194493.1042), mean=[84543.2742, 149708.1403], var=[0.0, 2076588889.9186])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-78970.25, 90129.3355), mean=[-24455.0144, 45344.3716], var=[0.0, 2283741866.881])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-350917.885, 376231.7037), mean=[-230170.9461, 257901.1465], var=[0.0, 77684135031.696])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5842.3877, 11994.4276), mean=[8336.818, 9986.2745], var=[1953.9895, 2122076.3176])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24343.2821, 33984.2115), mean=29163.7468, var=1818082.6076)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(32425.754, 198595.1725), mean=[87557.3219, 153307.6091], var=[0.0, 2117038401.9672])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-76572.5347, 94231.4039), mean=[-21440.9668, 48943.8405], var=[0.0, 2326115957.769])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-473397.9398, 424555.5875), mean=[-340685.5644, 289253.318], var=[0.0, 124212530861.7416])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5901.3341, 12115.4446), mean=[8420.9318, 10087.0303], var=[1993.6177, 2165113.4366])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24588.8921, 34327.0929), mean=29457.9925, var=1854954.532)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(34631.0011, 202309.7973), mean=[90308.5552, 156577.0494], var=[0.0, 2153177422.011])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-74367.2876, 97946.0287), mean=[-18689.7335, 52213.2807], var=[0.0, 2363958827.8517])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-593672.7474, 476594.0961), mean=[-449410.712, 325748.8272], var=[0.0, 182703023707.2967])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5954.2414, 12224.0634), mean=[8496.4281, 10177.4637], var=[2029.5247, 2204109.3218])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24809.3393, 34634.8462), mean=29722.0928, var=1888364.1412)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(36673.633, 205707.1714), mean=[92841.3191, 159574.7831], var=[0.0, 2185871333.9299])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-72324.6556, 101343.4027), mean=[-16156.9696, 55211.0144], var=[0.0, 2398181746.5403])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-684599.3918, 559335.5101), mean=[-529240.6555, 393594.2521], var=[0.0, 253636540887.5151])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6002.6851, 12323.5183), mean=[8565.5551, 10260.2676], var=[2062.6835, 2240120.4745])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25011.188, 34916.6352), mean=29963.9116, var=1919216.5897)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(38583.3442, 208857.3288), mean=[95199.9164, 162358.9835], var=[0.0, 2216020218.5331])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-70414.9445, 104493.5601), mean=[-13798.3723, 57995.2148], var=[0.0, 2429730372.1801])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-773616.325, 645227.0814), mean=[-607514.2972, 464800.9737], var=[0.0, 337476614265.7508])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6048.2406, 12417.0437), mean=[8630.5606, 10338.1346], var=[2094.1104, 2274250.843])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25201.0024, 35181.6238), mean=30191.3131, var=1948457.6821)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(9340.7095, 19542.4085), mean=[10008.8093, 18591.5538], var=[0.0, 26018665.5774])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(44263.8852, 218418.8185), mean=[101302.683, 171576.2844], var=[0.0, 2369204227.0772])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-64734.4034, 114055.0498), mean=[-7695.6057, 67212.5158], var=[0.0, 2590548607.0045])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-856952.7172, 740680.1425), mean=[-680430.8295, 545744.6094], var=[0.0, 436400234672.572])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6092.4832, 12507.8738), mean=[8693.6927, 10413.7576], var=[2124.8591, 2307644.6224])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25385.3466, 35438.9758), mean=30412.1612, var=1977067.7038)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(45996.2417, 221284.0486), mean=[103445.1611, 174107.2226], var=[0.0, 2397842476.5677])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-63002.047, 116920.28), mean=[-5553.1275, 69743.454], var=[0.0, 2620465037.4266])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-938556.7529, 838998.4337), mean=[-751947.3767, 629724.4393], var=[0.0, 549358775628.4595])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6136.9884, 12599.243), mean=[8757.1996, 10489.8293], var=[2156.0164, 2341482.1392])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25570.7848, 35697.8551), mean=30634.32, var=2006057.8961)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(47683.8848, 224111.2887), mean=[105545.4165, 176598.1456], var=[0.0, 2426822124.9471])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-61314.4039, 119747.52), mean=[-3452.8721, 72234.3769], var=[0.0, 2650730172.1961])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1018473.1456, 940143.965), mean=[-822071.7971, 716671.986], var=[0.0, 676589236987.6714])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6183.3315, 12694.3855), mean=[8823.3291, 10569.0427], var=[2188.7015, 2376978.8231])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25763.8813, 35967.4257), mean=30865.6535, var=2036469.5751)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(49355.9491, 226970.013), mean=[107647.2269, 179106.6344], var=[0.0, 2457181687.9913])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-59642.3396, 122606.2443), mean=[-1351.0618, 74742.8658], var=[0.0, 2682427794.6984])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1096717.4739, 1044148.2206), mean=[-890804.3238, 806615.4448], var=[0.0, 818427895210.2278])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6233.088, 12796.5357), mean=[8894.3294, 10654.0906], var=[2224.0676, 2415387.2645])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25971.2002, 36256.8512), mean=31114.0257, var=2069375.8937)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(51041.4463, 229929.5728), mean=[109794.1618, 181690.1189], var=[0.0, 2489986675.3681])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-57956.8424, 125565.8042), mean=[795.8732, 77326.3502], var=[0.0, 2716669129.5428])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-0.0, -0.0), mean=0.0, var=0.0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1173276.3051, 1151112.036), mean=[-958139.9801, 899625.9338], var=[0.0, 975315466583.2156])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6287.8333, 12908.9279), mean=[8972.4484, 10747.6656], var=[2263.3072, 2458002.3573])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(26199.3056, 36575.2957), mean=31387.3006, var=2105886.2484)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(52769.2712, 233059.2029), mean=[112029.774, 184405.9213], var=[0.0, 2526329406.6396])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-56229.0175, 128695.4342), mean=[3031.4853, 80042.1527], var=[0.0, 2754591622.9547])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1248107.3113, 1261205.4815), mean=[-1023998.2255, 995868.2228], var=[0.0, 1147722189500.9197])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(86663.8489, 176534.3399), mean=[96997.9558, 164521.5772], var=[0.0, 1330156310.5005])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1971602.5627, 4016156.2335), mean=[2191202.3352, 3759567.532], var=[0.0, 709218067605.1162])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(36392.9374, 50806.02), mean=[39809.1515, 47389.8059], var=[0.0, 20027028.1448])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(360271.6575, 502953.88), mean=[394108.3395, 469117.198], var=[0.0, 1958118470.3067])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(105211.4266, 222493.4577), mean=[125570.8946, 202133.9896], var=[0.0, 1881201697.7549])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(192819.9697, 318318.4753), mean=[193959.3276, 317179.1174], var=[0.0, 3937468732.9548])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1019577.3926, 1419453.2345), mean=[1063993.688, 1375036.9391], var=[0.0, 27539111834.423])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(552149.3282, 2996578.841), mean=[776258.414, 2731241.5823], var=[0.0, 1079375589128.369])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(20334.24, 85217.52), mean=[20606.3164, 74087.3172], var=[0.0, 897900952.0362])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1519872.8034, 1584756.0834), mean=[1520144.8798, 1573625.8806], var=[0.0, 897900952.0362])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1032606.7552, 1476706.0375), mean=[-808497.6694, 1211368.7789], var=[0.0, 1147722189500.9194])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1493474.3113, 1015838.4815), mean=[-1269365.2255, 750501.2228], var=[0.0, 1147722189500.9197])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-831.4031, 565.5077), mean=[-706.6437, 417.797], var=[0.0, 355684.1661])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-9216889.9871, 9688048.0588), mean=[-8571370.0497, 8747201.5216], var=[0.0, 80681321816865.1])</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1256,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>66590.19849158289</v>
+        <v>58780.04202809719</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1365,25 +1314,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="D6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="E6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="F6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="G6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="H6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="I6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1410,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>261303.56549061</v>
+        <v>382277.4384029294</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1421,52 +1370,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9602.7255</v>
+        <v>9300.994375</v>
       </c>
       <c r="D7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="E7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="F7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="G7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="H7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="I7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="J7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="K7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="L7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="M7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="N7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="O7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="P7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="Q7">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="R7">
-        <v>556958.079</v>
+        <v>539457.67375</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1526,8 +1475,8 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9">
+        <v>179633</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1708,49 +1657,49 @@
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" t="s">
         <v>152</v>
       </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="O2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="P2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="Q2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="R2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1974,7 +1923,7 @@
         <v>83</v>
       </c>
       <c r="R6" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1987,50 +1936,50 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" t="s">
-        <v>10</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2044,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -2099,50 +2048,50 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" t="s">
-        <v>10</v>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2155,50 +2104,50 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" t="s">
-        <v>10</v>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2209,10 +2158,10 @@
         <v>89000</v>
       </c>
       <c r="C11">
-        <v>89000</v>
+        <v>128000</v>
       </c>
       <c r="D11">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2254,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>248000</v>
+        <v>267000</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2310,7 +2259,7 @@
         <v>83</v>
       </c>
       <c r="R12" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2323,274 +2272,274 @@
       <c r="C13">
         <v>19758.48</v>
       </c>
-      <c r="D13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" t="s">
-        <v>159</v>
-      </c>
-      <c r="I13" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" t="s">
-        <v>183</v>
-      </c>
-      <c r="M13" t="s">
-        <v>190</v>
-      </c>
-      <c r="N13" t="s">
-        <v>196</v>
-      </c>
-      <c r="O13" t="s">
-        <v>202</v>
-      </c>
-      <c r="P13" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>214</v>
-      </c>
-      <c r="R13" t="s">
-        <v>221</v>
+      <c r="D13">
+        <v>29640</v>
+      </c>
+      <c r="E13">
+        <v>28158</v>
+      </c>
+      <c r="F13">
+        <v>26750.1</v>
+      </c>
+      <c r="G13">
+        <v>25412.595</v>
+      </c>
+      <c r="H13">
+        <v>24141.96525</v>
+      </c>
+      <c r="I13">
+        <v>22934.86698749999</v>
+      </c>
+      <c r="J13">
+        <v>21788.12363812499</v>
+      </c>
+      <c r="K13">
+        <v>20698.71745621874</v>
+      </c>
+      <c r="L13">
+        <v>19663.78158340781</v>
+      </c>
+      <c r="M13">
+        <v>18680.59250423741</v>
+      </c>
+      <c r="N13">
+        <v>17746.56287902554</v>
+      </c>
+      <c r="O13">
+        <v>16859.23473507426</v>
+      </c>
+      <c r="P13">
+        <v>16016.27299832055</v>
+      </c>
+      <c r="Q13">
+        <v>15215.45934840452</v>
+      </c>
+      <c r="R13">
+        <v>323464.7523803138</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R14" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
         <v>148</v>
       </c>
-      <c r="G15" t="s">
-        <v>154</v>
-      </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
+        <v>173</v>
+      </c>
+      <c r="M15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N15" t="s">
         <v>184</v>
       </c>
-      <c r="M15" t="s">
-        <v>191</v>
-      </c>
-      <c r="N15" t="s">
-        <v>197</v>
-      </c>
       <c r="O15" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="Q15" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="R15" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R16" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>9340.709520181052</v>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="Q17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="R17" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2654,7 +2603,7 @@
         <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -2702,7 +2651,7 @@
         <v>84</v>
       </c>
       <c r="R19" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2713,52 +2662,52 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" t="s">
         <v>149</v>
       </c>
-      <c r="G20" t="s">
-        <v>155</v>
-      </c>
       <c r="H20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="Q20" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="R20" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2825,52 +2774,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>36450</v>
+        <v>33408</v>
       </c>
       <c r="D22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="E22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="F22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="G22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="H22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="I22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="J22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="K22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="L22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="M22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="N22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="O22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="P22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="Q22">
-        <v>67320</v>
+        <v>70236</v>
       </c>
       <c r="R22">
-        <v>978930</v>
+        <v>1016712</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2881,52 +2830,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>729</v>
+        <v>668.16</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R23" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2993,52 +2942,52 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>27860.19849158289</v>
-      </c>
-      <c r="D25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" t="s">
-        <v>136</v>
-      </c>
-      <c r="K25" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" t="s">
-        <v>136</v>
-      </c>
-      <c r="M25" t="s">
-        <v>136</v>
-      </c>
-      <c r="N25" t="s">
-        <v>136</v>
-      </c>
-      <c r="O25" t="s">
-        <v>136</v>
-      </c>
-      <c r="P25" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>136</v>
-      </c>
-      <c r="R25" t="s">
-        <v>229</v>
+        <v>23152.88202809718</v>
+      </c>
+      <c r="D25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="E25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="F25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="G25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="H25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="I25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="J25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="K25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="L25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="M25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="N25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="O25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="P25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="Q25">
+        <v>31172.04867102133</v>
+      </c>
+      <c r="R25">
+        <v>459561.563422396</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3049,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>66590.19849158289</v>
+        <v>58780.04202809719</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -3094,7 +3043,7 @@
         <v>19</v>
       </c>
       <c r="R26" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3105,52 +3054,52 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" t="s">
         <v>150</v>
       </c>
-      <c r="G27" t="s">
-        <v>156</v>
-      </c>
       <c r="H27" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I27" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J27" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="N27" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="O27" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="Q27" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="R27" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3161,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="D28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="E28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="F28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="G28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="H28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="I28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3206,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>130651.782745305</v>
+        <v>191138.7192014647</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3214,55 +3163,55 @@
         <v>115</v>
       </c>
       <c r="B29">
-        <v>108000</v>
+        <v>158000</v>
       </c>
       <c r="C29">
-        <v>94735.46000000001</v>
+        <v>138594.47</v>
       </c>
       <c r="D29">
-        <v>80807.69</v>
+        <v>118218.66</v>
       </c>
       <c r="E29">
-        <v>66183.53</v>
+        <v>96824.06</v>
       </c>
       <c r="F29">
-        <v>50828.17</v>
+        <v>74359.73</v>
       </c>
       <c r="G29">
-        <v>34705.04</v>
+        <v>50772.19</v>
       </c>
       <c r="H29">
-        <v>17775.75</v>
+        <v>26005.27</v>
       </c>
       <c r="I29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>453035.64</v>
+        <v>662774.3800000001</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3273,49 +3222,49 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="Q30" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="R30" t="s">
         <v>10</v>
@@ -3329,52 +3278,52 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>9602.7255</v>
+        <v>9300.994375</v>
       </c>
       <c r="D31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="E31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="F31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="G31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="H31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="I31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="J31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="K31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="L31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="M31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="N31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="O31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="P31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="Q31">
-        <v>19205.451</v>
+        <v>18601.98875</v>
       </c>
       <c r="R31">
-        <v>278479.0395</v>
+        <v>269728.836875</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3430,7 +3379,7 @@
         <v>85</v>
       </c>
       <c r="R32" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3486,7 +3435,7 @@
         <v>87</v>
       </c>
       <c r="R33" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3494,55 +3443,55 @@
         <v>118</v>
       </c>
       <c r="B34">
-        <v>85446.18999999999</v>
+        <v>168796</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" t="s">
         <v>151</v>
       </c>
-      <c r="G34" t="s">
-        <v>157</v>
-      </c>
       <c r="H34" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I34" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J34" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L34" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="M34" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="N34" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O34" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="Q34" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="R34" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="221">
   <si>
     <t>Cumulative Sum</t>
   </si>
@@ -56,235 +56,235 @@
     <t>Pbox: ~ (range=[(76828.3135, 126182.8811), mean=[92200.1364, 106180.0023], var=[420247.6574, 131512653.9674])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(47275.559, 61453.2046), mean=[50705.8143, 58022.9492], var=[0.0, 18689025.8833])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-80011.4588, -16479.2456), mean=[-63469.2639, -37630.1362], var=[0.0, 302130991.1895])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(113179.4789, 163153.7544), mean=[131295.5647, 145037.6686], var=[951552.4328, 122767659.1083])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-44.5416, -9.1738), mean=[-35.3327, -20.9483], var=[0.0, 0.0094])</t>
+    <t>Pbox: ~ (range=[(47257.078, 61595.1636), mean=[50687.3334, 58164.9082], var=[0.0, 19381080.2932])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-80153.4178, -16460.7646), mean=[-63611.2229, -37611.6552], var=[0.0, 304849778.2052])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(113037.5198, 163172.2354), mean=[131153.6057, 145056.1496], var=[918767.9918, 124470361.3568])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-44.6207, -9.1636), mean=[-35.4118, -20.9381], var=[0.0, 0.0094])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(125459.5062, 257568.4867), mean=[175766.9521, 216737.9781], var=[105916.6191, 1087833791.1855])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(78410.7391, 104080.5162), mean=[84655.0391, 97836.2163], var=[0.0, 60459596.0369])</t>
+    <t>Pbox: ~ (range=[(78373.7771, 104364.4343), mean=[84618.0771, 98120.1343], var=[0.0, 62950552.8297])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(104363.7687, 108998.2887), mean=104828.0207, var=[858866.2597, 1366654.2596])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-133526.8188, 28886.4588), mean=[-81428.0213, -13927.4894], var=[0.0, 2121221588.9631])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(43326.9477, 192040.2133), mean=[88439.7966, 146927.3644], var=[0.0, 1471892178.0273])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-74.3331, 16.0808), mean=[-45.3302, -7.7533], var=[0.0, 0.0657])</t>
+    <t>Pbox: ~ (range=[(-133810.7368, 28923.4208), mean=[-81711.9394, -13890.5274], var=[0.0, 2135441393.6242])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(42901.0706, 192095.6562), mean=[88013.9195, 146982.8073], var=[0.0, 1489939927.3012])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-74.4912, 16.1014), mean=[-45.4883, -7.7327], var=[0.0, 0.0662])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(127708.4946, 262185.6621), mean=[178917.7523, 220623.2254], var=[109747.9794, 1127184397.7921])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(77340.6417, 103173.5491), mean=[83656.5472, 96857.6436], var=[0.0, 60888736.2763])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-130370.8632, 34573.7316), mean=[-77357.5168, -8986.2579], var=[0.0, 2182056199.333])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-22311.2804, 226613.9449), mean=[44596.4636, 159706.2009], var=[0.0, 4924494986.3997])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-72.5762, 19.2469), mean=[-43.0642, -5.0026], var=[0.0, 0.0676])</t>
+    <t>Pbox: ~ (range=[(77303.6798, 103457.4671), mean=[83619.5852, 97141.5617], var=[0.0, 63388004.8207])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-130654.7812, 34610.6936), mean=[-77641.4348, -8949.2959], var=[0.0, 2196474526.81])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-23021.0755, 226706.3497), mean=[43886.6684, 159798.6058], var=[0.0, 4979911061.0093])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-72.7343, 19.2674), mean=[-43.2223, -4.982], var=[0.0, 0.0681])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(129676.7328, 266226.457), mean=[181675.2255, 224023.4617], var=[113156.9106, 1162196378.0529])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(76293.2249, 102268.8983), mean=[82671.9658, 95890.1574], var=[0.0, 61264042.8506])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-127497.9742, 39661.9434), mean=[-73683.9866, -4551.1144], var=[0.0, 2235986384.5263])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-84150.3896, 266275.8883), mean=[3040.3755, 179085.1231], var=[0.0, 10892323453.1846])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-70.9769, 22.0794), mean=[-41.0192, -2.5336], var=[0.0, 0.0693])</t>
+    <t>Pbox: ~ (range=[(76256.263, 102552.8163), mean=[82635.0039, 96174.0754], var=[0.0, 63770550.1895])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-127781.8922, 39698.9053), mean=[-73967.9047, -4514.1525], var=[0.0, 2250578389.9958])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-85144.1029, 266405.255), mean=[2046.6623, 179214.4899], var=[0.0, 11008074502.0564])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-71.135, 22.1), mean=[-41.1772, -2.513], var=[0.0, 0.0697])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(131400.0613, 269764.452), mean=[184089.5838, 227000.6034], var=[116184.4744, 1193291461.569])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(75271.3478, 101372.0227), mean=[81705.2077, 94938.1628], var=[0.0, 61592541.6618])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-124877.7701, 44221.8154), mean=[-70362.5345, -563.1485], var=[0.0, 2283741866.881])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-142558.3168, 310497.7037), mean=[-36235.2788, 204174.6657], var=[0.0, 19692199322.9544])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-69.5183, 24.6179), mean=[-39.1702, -0.3135], var=[0.0, 0.0708])</t>
+    <t>Pbox: ~ (range=[(75234.3859, 101655.9407), mean=[81668.2458, 95222.0809], var=[0.0, 64105361.543])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-125161.6882, 44258.7774), mean=[-70646.4526, -526.1865], var=[0.0, 2298485908.6467])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-143835.9481, 310664.0324), mean=[-37512.9101, 204340.9944], var=[0.0, 19892689743.7282])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-69.6763, 24.6384), mean=[-39.3282, -0.2929], var=[0.0, 0.0712])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(132914.3204, 272873.2275), mean=[186211.0389, 229616.5667], var=[118877.7324, 1220953004.2476])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(74278.0549, 100488.5664), mean=[80760.4312, 94006.1901], var=[0.0, 61881293.6934])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-122480.0547, 48323.8838), mean=[-67348.4869, 3036.3204], var=[0.0, 2326115957.769])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-197855.936, 358821.5875), mean=[-73289.0547, 234254.7062], var=[0.0, 31572246833.6262])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-68.1835, 26.9015), mean=[-37.4923, 1.6903], var=[0.0, 0.0721])</t>
+    <t>Pbox: ~ (range=[(74241.093, 100772.4845), mean=[80723.4693, 94290.1082], var=[0.0, 64399644.6456])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-122763.9728, 48360.8458), mean=[-67632.4049, 3073.2823], var=[0.0, 2340993567.5373])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-199417.4853, 359024.8781), mean=[-74850.6041, 234457.9969], var=[0.0, 31882929845.0189])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-68.3415, 26.922), mean=[-37.6503, 1.7109], var=[0.0, 0.0725])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(134255.3507, 275626.3639), mean=[188089.8029, 231933.2679], var=[121288.6519, 1245714743.1656])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(73316.5666, 99624.3496), mean=[79841.9743, 93098.9419], var=[0.0, 62136898.0544])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-120274.8076, 52038.5086), mean=[-64597.2535, 6305.7607], var=[0.0, 2363958827.8517])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-250317.235, 410860.0961), mean=[-108257.5712, 268800.4323], var=[0.0, 46749605281.3725])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-66.9559, 28.9693), mean=[-35.9607, 3.5104], var=[0.0, 0.0733])</t>
+    <t>Pbox: ~ (range=[(73279.6047, 99908.2677), mean=[79805.0124, 93382.86], var=[0.0, 64660131.0837])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-120558.7257, 52075.4705), mean=[-64881.1716, 6342.7226], var=[0.0, 2378954690.2267])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-252162.7024, 411100.3487), mean=[-110103.0386, 269040.6849], var=[0.0, 47196831806.2188])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-67.1139, 28.9899), mean=[-36.1187, 3.5309], var=[0.0, 0.0737])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(135458.9926, 278097.4419), mean=[189776.0878, 234012.6234], var=[123473.1833, 1268151326.9813])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(72390.2705, 98785.3596), mean=[78954.3458, 92221.2843], var=[0.0, 62366338.5907])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-90926.6444, 82741.414), mean=[-34758.9583, 36609.0256], var=[0.0, 2398181746.5403])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-272863.9511, 493601.5101), mean=[-113956.4546, 334694.0135], var=[0.0, 65414027595.8631])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-50.618, 46.0614), mean=[-19.35, 20.3799], var=[0.0, 0.0743])</t>
+    <t>Pbox: ~ (range=[(72353.3086, 99069.2776), mean=[78917.3838, 92505.2024], var=[0.0, 64893942.895])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-91210.5624, 82778.3759), mean=[-35042.8764, 36645.9876], var=[0.0, 2413283731.5081])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-274993.3366, 493878.7246), mean=[-116085.84, 334971.2281], var=[0.0, 66024907816.3568])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-50.7761, 46.0819), mean=[-19.508, 20.4005], var=[0.0, 0.0748])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(136561.0866, 280360.0418), mean=[191320.1054, 235916.5494], var=[125490.5114, 1288870621.8935])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(71502.713, 97977.7424), mean=[78102.2407, 91378.2147], var=[0.0, 62576376.6494])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-89016.9333, 85891.5714), mean=[-32400.361, 39393.226], var=[0.0, 2429730372.1801])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-292982.3237, 579493.0814), mean=[-117777.9364, 404288.6942], var=[0.0, 87727161113.707])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-49.5549, 47.815), mean=[-18.037, 21.9298], var=[0.0, 0.0753])</t>
+    <t>Pbox: ~ (range=[(71465.7511, 98261.6605), mean=[78065.2788, 91662.1328], var=[0.0, 65107973.8376])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-89300.8513, 85928.5333), mean=[-32684.2791, 39430.188], var=[0.0, 2444929509.923])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-295395.6272, 579807.2579), mean=[-120191.2399, 404602.8707], var=[0.0, 88529421094.4281])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-49.7129, 47.8356), mean=[-18.195, 21.9504], var=[0.0, 0.0758])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(137597.473, 282487.7441), mean=[192772.0678, 237706.9621], var=[127402.4788, 1308507793.1493])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(64068.9257, 93333.5878), mean=[70701.8353, 86700.6781], var=[0.0, 85845266.4635])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-83336.3922, 95453.0611), mean=[-26297.5944, 48610.527], var=[0.0, 2590548607.0045])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-310806.6512, 668357.4766), mean=[-119778.9667, 477329.7922], var=[0.0, 113829611741.7491])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-46.3926, 53.1378), mean=[-14.6396, 27.061], var=[0.0, 0.0803])</t>
+    <t>Pbox: ~ (range=[(65349.6969, 93617.5058), mean=[71982.6065, 86984.5962], var=[0.0, 76944369.1476])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-83620.3103, 94172.2898), mean=[-26581.5125, 47329.7558], var=[0.0, 2542027296.2089])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-313503.8728, 668708.6151), mean=[-122476.1883, 477680.9306], var=[0.0, 114851490769.1307])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-46.5506, 52.4248), mean=[-14.7977, 26.348], var=[0.0, 0.0788])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(138603.9924, 284554.1294), mean=[194182.1869, 239445.778], var=[129273.1829, 1327721162.0985])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(63270.0808, 92607.7507), mean=[69935.4452, 85942.3863], var=[0.0, 86067326.7653])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-81604.0357, 98318.2912), mean=[-24155.1163, 51141.4652], var=[0.0, 2620465037.4266])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-326424.9661, 760087.102), mean=[-119986.9305, 553649.0665], var=[0.0, 143847701897.598])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-45.4282, 54.7329), mean=[-13.4469, 28.47], var=[0.0, 0.0812])</t>
+    <t>Pbox: ~ (range=[(64550.852, 92891.6688), mean=[71216.2164, 86226.3043], var=[0.0, 77155169.6657])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-81887.9538, 97037.52), mean=[-24439.0344, 49860.694], var=[0.0, 2571668153.5988])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-329406.1057, 760475.2024), mean=[-122968.0702, 554037.1668], var=[0.0, 145117885184.9961])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-45.5863, 54.0199), mean=[-13.605, 27.757], var=[0.0, 0.0797])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(139616.4852, 286632.7781), mean=[195600.6747, 241194.9132], var=[131168.7449, 1347189838.7969])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(62521.4894, 91932.6004), mean=[69219.5352, 85234.5546], var=[0.0, 86290472.7976])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-79916.3926, 101145.5313), mean=[-22054.8609, 53632.3882], var=[0.0, 2650730172.1961])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-339879.1706, 854643.9674), mean=[-118401.6411, 633166.4379], var=[0.0, 177895593476.5012])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-44.4887, 56.3068), mean=[-12.2777, 29.8566], var=[0.0, 0.0821])</t>
+    <t>Pbox: ~ (range=[(63802.2606, 92216.5185), mean=[70500.3064, 85518.4727], var=[0.0, 77367018.3255])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-80200.3107, 99864.7601), mean=[-22338.7789, 52351.6169], var=[0.0, 2601656119.101])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-343144.2284, 855069.0297), mean=[-121666.6988, 633591.5002], var=[0.0, 179443153258.4351])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-44.6468, 55.5938), mean=[-12.4358, 29.1437], var=[0.0, 0.0806])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(140670.7918, 288797.2707), mean=[197077.7431, 243016.2841], var=[133157.2527, 1367613130.157])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(61827.2577, 91314.8428), mean=[68559.3715, 84582.7289], var=[0.0, 86522922.2372])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-78244.3283, 104004.2556), mean=[-19953.0506, 56140.877], var=[0.0, 2682427794.6984])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-351165.1666, 952059.5572), mean=[-114975.4243, 715869.8148], var=[0.0, 216098154985.2548])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-43.5579, 57.8982), mean=[-11.1077, 31.2531], var=[0.0, 0.0831])</t>
+    <t>Pbox: ~ (range=[(63108.0289, 91598.7608), mean=[69840.1428, 84866.647], var=[0.0, 77587718.4773])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-78528.2464, 102723.4843), mean=[-20236.9686, 54860.1058], var=[0.0, 2633065164.2243])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-354714.1424, 952521.5814), mean=[-118524.4, 716331.839], var=[0.0, 217952605145.656])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-43.7159, 57.1852), mean=[-11.2657, 30.5401], var=[0.0, 0.0816])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(141802.7528, 291121.1877), mean=[198663.604, 244971.807], var=[135308.8758, 1389711723.6462])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(61191.6148, 90761.3066), mean=[67960.3422, 83992.5792], var=[0.0, 86772398.5642])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-76558.8312, 106963.8154), mean=[-17806.1156, 58724.3614], var=[0.0, 2716669129.5428])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-360232.9779, 1052434.7067), mean=[-109613.1184, 801814.8472], var=[0.0, 258614992849.8098])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-42.6196, 59.5457), mean=[-9.9125, 32.6913], var=[0.0, 0.0842])</t>
+    <t>Pbox: ~ (range=[(62472.3861, 91045.2246), mean=[69241.1134, 84276.4973], var=[0.0, 77824607.8033])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-76842.7492, 105683.0442), mean=[-18090.0336, 57443.5902], var=[0.0, 2666996687.266])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-364065.8717, 1052933.6929), mean=[-113446.0122, 802313.8334], var=[0.0, 260806453740.1442])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-42.7776, 58.8328), mean=[-10.0706, 31.9783], var=[0.0, 0.0827])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(143048.2086, 293678.1095), mean=[200408.4695, 247123.3981], var=[137696.1535, 1414230646.5338])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(60618.9066, 90278.9374), mean=[67427.9626, 83469.8815], var=[0.0, 87046833.5619])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-74831.0063, 110093.4455), mean=[-15570.5035, 61440.1639], var=[0.0, 2754591622.9547])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-366986.8675, 1155939.4863), mean=[-102170.53, 891123.1489], var=[0.0, 305612635617.4929])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-41.6577, 61.288), mean=[-8.668, 34.2032], var=[0.0, 0.0854])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-2065213.5105, 2953412.0751), mean=[-1748950.4471, 2526826.1718], var=[0.0, 4971832845291.078])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1662.8062, 1131.0154), mean=[-1486.7455, 893.5391], var=[0.0, 1540792.9162])</t>
+    <t>Pbox: ~ (range=[(61899.6779, 90562.8555), mean=[68708.7338, 83753.7995], var=[0.0, 78085223.4608])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-75114.9243, 108812.6742), mean=[-15854.4215, 60159.3927], var=[0.0, 2704578358.6577])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-371103.6794, 1156475.4344), mean=[-106287.3419, 891659.097], var=[0.0, 308171848153.318])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-41.8158, 60.575), mean=[-8.826, 33.4902], var=[0.0, 0.0838])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-2073447.1343, 2938671.1732), mean=[-1757184.0709, 2512085.27], var=[0.0, 4957351530260.664])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1667.3898, 1122.8093), mean=[-1491.3291, 885.333], var=[0.0, 1536305.0928])</t>
   </si>
   <si>
     <t>Yield Crop 1</t>
@@ -389,16 +389,19 @@
     <t>Pbox: ~ (range=[(9340.7095, 13731.0975), mean=11535.9035, var=[0.0, 0.0003])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(15375.1089, 78907.3221), mean=[31917.3038, 57756.4315], var=[0.0, 302130991.1895])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-43404.9331, 20127.2801), mean=[-26862.7382, -1023.6105], var=[0.0, 302130991.1895])</t>
+    <t>Pbox: ~ (range=[(30.369, 190.809), mean=85.4916, var=4935.5744)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(15233.1499, 78925.8031), mean=[31775.3448, 57774.9125], var=[0.0, 304849778.2052])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-43546.8922, 20145.7611), mean=[-27004.6972, -1005.1295], var=[0.0, 304849778.2052])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-0.0, -0.0), mean=-0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(115355.5412, 178887.7544), mean=[131897.7361, 157736.8638], var=[0.0, 302130991.1895])</t>
+    <t>Pbox: ~ (range=[(115213.5822, 178906.2354), mean=[131755.7771, 157755.3448], var=[0.0, 304849778.2052])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5514.7036, 11321.6917), mean=[7869.2279, 9426.1706], var=[1740.9481, 1890708.584])</t>
@@ -416,16 +419,19 @@
     <t>Pbox: ~ (range=[(15929.3754, 23416.6158), mean=19672.9956, var=[0.0, 0.0003])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(21378.99, 179157.7476), mean=[73477.7874, 136343.7994], var=[0.0, 1921623009.1356])</t>
+    <t>Pbox: ~ (range=[(60.738, 381.618), mean=170.9832, var=19742.2975)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(21095.0719, 179194.7095), mean=[73193.8693, 136380.7613], var=[0.0, 1935096543.1757])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(1404.72, 6039.24), mean=1868.972, var=[858866.2597, 1366654.2596])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-87619.2987, 74793.9789), mean=[-35520.5013, 31980.0307], var=[0.0, 2121221588.9631])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(31828.7224, 257774.2133), mean=[90376.9428, 204760.3193], var=[0.0, 5035923681.0693])</t>
+    <t>Pbox: ~ (range=[(-87903.2168, 74830.9408), mean=[-35804.4193, 32016.9926], var=[0.0, 2135441393.6242])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(31402.8453, 257829.6562), mean=[89951.0657, 204815.7622], var=[0.0, 5069413283.2385])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5613.5602, 11524.6445), mean=[8010.2917, 9595.1442], var=[1803.924, 1959101.8719])</t>
@@ -434,13 +440,13 @@
     <t>Pbox: ~ (range=[(23389.8342, 32653.1594), mean=28021.4968, var=1678454.7333)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(24534.9456, 184845.0203), mean=[77548.292, 141285.0309], var=[0.0, 1979596729.7141])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-84463.3431, 80481.2517), mean=[-31449.9967, 36921.2622], var=[0.0, 2182056199.333])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-98542.1408, 292347.9449), mean=[-11767.7873, 214324.9154], var=[0.0, 18625988738.6078])</t>
+    <t>Pbox: ~ (range=[(24251.0275, 184881.9823), mean=[77264.3739, 141321.9928], var=[0.0, 1993268726.737])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-84747.2612, 80518.2136), mean=[-31733.9148, 36958.2241], var=[0.0, 2196474526.81])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-99251.9359, 292440.3497), mean=[-12477.5825, 214417.3202], var=[0.0, 18734336061.7364])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5700.0762, 11702.2618), mean=[8133.746, 9743.0242], var=[1859.9565, 2019954.414])</t>
@@ -449,13 +455,13 @@
     <t>Pbox: ~ (range=[(23750.3174, 33156.4086), mean=28453.363, var=1730589.9688)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(27407.8346, 189933.2321), mean=[81221.8221, 145720.1743], var=[0.0, 2031024181.098])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-81590.4541, 85569.4634), mean=[-27776.4665, 41356.4057], var=[0.0, 2235986384.5263])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-226040.1149, 332009.8883), mean=[-119173.9908, 232544.2203], var=[0.0, 42641542198.2388])</t>
+    <t>Pbox: ~ (range=[(27123.9165, 189970.194), mean=[80937.9041, 145757.1363], var=[0.0, 2044869803.733])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-81874.3721, 85606.4254), mean=[-28060.3846, 41393.3676], var=[0.0, 2250578389.9958])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-227033.8281, 332139.255), mean=[-120167.704, 232673.587], var=[0.0, 42872228306.1979])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5775.8269, 11857.7781), mean=[8241.8388, 9872.5034], var=[1909.7205, 2073999.1972])</t>
@@ -464,13 +470,13 @@
     <t>Pbox: ~ (range=[(24065.9453, 33597.038), mean=28831.4916, var=1776892.6769)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(30028.0386, 194493.1042), mean=[84543.2742, 149708.1403], var=[0.0, 2076588889.9186])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-78970.25, 90129.3355), mean=[-24455.0144, 45344.3716], var=[0.0, 2283741866.881])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-350917.885, 376231.7037), mean=[-230170.9461, 257901.1465], var=[0.0, 77684135031.696])</t>
+    <t>Pbox: ~ (range=[(29744.1206, 194530.0661), mean=[84259.3562, 149745.1022], var=[0.0, 2090586503.0179])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-79254.1681, 90166.2974), mean=[-24738.9325, 45381.3335], var=[0.0, 2298485908.6467])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-352195.5163, 376398.0324), mean=[-231448.5774, 258067.4753], var=[0.0, 78085193854.4331])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5842.3877, 11994.4276), mean=[8336.818, 9986.2745], var=[1953.9895, 2122076.3176])</t>
@@ -479,13 +485,13 @@
     <t>Pbox: ~ (range=[(24343.2821, 33984.2115), mean=29163.7468, var=1818082.6076)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(32425.754, 198595.1725), mean=[87557.3219, 153307.6091], var=[0.0, 2117038401.9672])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-76572.5347, 94231.4039), mean=[-21440.9668, 48943.8405], var=[0.0, 2326115957.769])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-473397.9398, 424555.5875), mean=[-340685.5644, 289253.318], var=[0.0, 124212530861.7416])</t>
+    <t>Pbox: ~ (range=[(32141.836, 198632.1345), mean=[87273.4038, 153344.5711], var=[0.0, 2131169542.8124])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-76856.4527, 94268.3658), mean=[-21724.8849, 48980.8024], var=[0.0, 2340993567.5373])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-474959.4891, 424758.8781), mean=[-342247.1138, 289456.6086], var=[0.0, 124832933843.293])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5901.3341, 12115.4446), mean=[8420.9318, 10087.0303], var=[1993.6177, 2165113.4366])</t>
@@ -494,13 +500,13 @@
     <t>Pbox: ~ (range=[(24588.8921, 34327.0929), mean=29457.9925, var=1854954.532)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(34631.0011, 202309.7973), mean=[90308.5552, 156577.0494], var=[0.0, 2153177422.011])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-74367.2876, 97946.0287), mean=[-18689.7335, 52213.2807], var=[0.0, 2363958827.8517])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-593672.7474, 476594.0961), mean=[-449410.712, 325748.8272], var=[0.0, 182703023707.2967])</t>
+    <t>Pbox: ~ (range=[(34347.083, 202346.7593), mean=[90024.6371, 156614.0113], var=[0.0, 2167426779.7701])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-74651.2056, 97982.9906), mean=[-18973.6515, 52250.2427], var=[0.0, 2378954690.2267])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-595518.2148, 476834.3487), mean=[-451256.1794, 325989.0798], var=[0.0, 183592734460.4897])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(5954.2414, 12224.0634), mean=[8496.4281, 10177.4637], var=[2029.5247, 2204109.3218])</t>
@@ -509,13 +515,13 @@
     <t>Pbox: ~ (range=[(24809.3393, 34634.8462), mean=29722.0928, var=1888364.1412)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(36673.633, 205707.1714), mean=[92841.3191, 159574.7831], var=[0.0, 2185871333.9299])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-72324.6556, 101343.4027), mean=[-16156.9696, 55211.0144], var=[0.0, 2398181746.5403])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-684599.3918, 559335.5101), mean=[-529240.6555, 393594.2521], var=[0.0, 253636540887.5151])</t>
+    <t>Pbox: ~ (range=[(36389.715, 205744.1333), mean=[92557.401, 159611.745], var=[0.0, 2200226782.3656])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-72608.5737, 101380.3647), mean=[-16440.8876, 55247.9763], var=[0.0, 2413283731.5081])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-686728.7772, 559612.7246), mean=[-531370.0409, 393871.4666], var=[0.0, 254846552667.9293])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6002.6851, 12323.5183), mean=[8565.5551, 10260.2676], var=[2062.6835, 2240120.4745])</t>
@@ -524,13 +530,13 @@
     <t>Pbox: ~ (range=[(25011.188, 34916.6352), mean=29963.9116, var=1919216.5897)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(38583.3442, 208857.3288), mean=[95199.9164, 162358.9835], var=[0.0, 2216020218.5331])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-70414.9445, 104493.5601), mean=[-13798.3723, 57995.2148], var=[0.0, 2429730372.1801])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-773616.325, 645227.0814), mean=[-607514.2972, 464800.9737], var=[0.0, 337476614265.7508])</t>
+    <t>Pbox: ~ (range=[(38299.4261, 208894.2907), mean=[94915.9983, 162395.9454], var=[0.0, 2230472790.474])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-70698.8626, 104530.522), mean=[-14082.2903, 58032.1767], var=[0.0, 2444929509.923])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-776029.6285, 645541.2579), mean=[-609927.6008, 465115.1501], var=[0.0, 339058901232.6394])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6048.2406, 12417.0437), mean=[8630.5606, 10338.1346], var=[2094.1104, 2274250.843])</t>
@@ -539,16 +545,16 @@
     <t>Pbox: ~ (range=[(25201.0024, 35181.6238), mean=30191.3131, var=1948457.6821)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(9340.7095, 19542.4085), mean=[10008.8093, 18591.5538], var=[0.0, 26018665.5774])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(44263.8852, 218418.8185), mean=[101302.683, 171576.2844], var=[0.0, 2369204227.0772])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-64734.4034, 114055.0498), mean=[-7695.6057, 67212.5158], var=[0.0, 2590548607.0045])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-856952.7172, 740680.1425), mean=[-680430.8295, 545744.6094], var=[0.0, 436400234672.572])</t>
+    <t>Pbox: ~ (range=[(10658.4427, 19542.4085), mean=[11420.7941, 18591.5538], var=[0.0, 19731212.1733])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(43979.9672, 217138.0473), mean=[101018.7649, 170295.5132], var=[0.0, 2323003836.9099])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-65018.3215, 112774.2786), mean=[-7979.5237, 65931.7445], var=[0.0, 2542027296.2089])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-859649.9388, 739713.5477), mean=[-683128.0511, 544778.0147], var=[0.0, 437541619145.3553])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6092.4832, 12507.8738), mean=[8693.6927, 10413.7576], var=[2124.8591, 2307644.6224])</t>
@@ -557,13 +563,13 @@
     <t>Pbox: ~ (range=[(25385.3466, 35438.9758), mean=30412.1612, var=1977067.7038)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(45996.2417, 221284.0486), mean=[103445.1611, 174107.2226], var=[0.0, 2397842476.5677])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-63002.047, 116920.28), mean=[-5553.1275, 69743.454], var=[0.0, 2620465037.4266])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-938556.7529, 838998.4337), mean=[-751947.3767, 629724.4393], var=[0.0, 549358775628.4595])</t>
+    <t>Pbox: ~ (range=[(45712.3236, 220003.2774), mean=[103161.2431, 172826.4514], var=[0.0, 2351366596.2288])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-63285.965, 115639.5087), mean=[-5837.0456, 68462.6827], var=[0.0, 2571668153.5988])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-941537.8926, 836751.0677), mean=[-754928.5163, 627477.0733], var=[0.0, 549901633555.4595])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6136.9884, 12599.243), mean=[8757.1996, 10489.8293], var=[2156.0164, 2341482.1392])</t>
@@ -572,13 +578,13 @@
     <t>Pbox: ~ (range=[(25570.7848, 35697.8551), mean=30634.32, var=2006057.8961)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(47683.8848, 224111.2887), mean=[105545.4165, 176598.1456], var=[0.0, 2426822124.9471])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-61314.4039, 119747.52), mean=[-3452.8721, 72234.3769], var=[0.0, 2650730172.1961])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1018473.1456, 940143.965), mean=[-822071.7971, 716671.986], var=[0.0, 676589236987.6714])</t>
+    <t>Pbox: ~ (range=[(47399.9667, 222830.5175), mean=[105261.4985, 175317.3743], var=[0.0, 2380069157.5382])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-61598.3219, 118466.7488), mean=[-3736.7902, 70953.6057], var=[0.0, 2601656119.101])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1021738.2033, 936615.8278), mean=[-825336.8548, 713143.8488], var=[0.0, 676373278637.7455])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6183.3315, 12694.3855), mean=[8823.3291, 10569.0427], var=[2188.7015, 2376978.8231])</t>
@@ -587,13 +593,13 @@
     <t>Pbox: ~ (range=[(25763.8813, 35967.4257), mean=30865.6535, var=2036469.5751)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(49355.9491, 226970.013), mean=[107647.2269, 179106.6344], var=[0.0, 2457181687.9913])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-59642.3396, 122606.2443), mean=[-1351.0618, 74742.8658], var=[0.0, 2682427794.6984])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1096717.4739, 1044148.2206), mean=[-890804.3238, 806615.4448], var=[0.0, 818427895210.2278])</t>
+    <t>Pbox: ~ (range=[(49072.031, 225689.2418), mean=[107363.3088, 177825.8632], var=[0.0, 2410140223.6675])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-59926.2576, 121325.4731), mean=[-1634.9799, 73462.0945], var=[0.0, 2633065164.2243])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1100266.4497, 1039339.3121), mean=[-894353.2996, 801806.5363], var=[0.0, 817290548126.4517])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6233.088, 12796.5357), mean=[8894.3294, 10654.0906], var=[2224.0676, 2415387.2645])</t>
@@ -602,16 +608,16 @@
     <t>Pbox: ~ (range=[(25971.2002, 36256.8512), mean=31114.0257, var=2069375.8937)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(51041.4463, 229929.5728), mean=[109794.1618, 181690.1189], var=[0.0, 2489986675.3681])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-57956.8424, 125565.8042), mean=[795.8732, 77326.3502], var=[0.0, 2716669129.5428])</t>
+    <t>Pbox: ~ (range=[(50757.5282, 228648.8016), mean=[109510.2438, 180409.3476], var=[0.0, 2442635483.4635])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-58240.7605, 124285.0329), mean=[511.9551, 76045.579], var=[0.0, 2666996687.266])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-0.0, -0.0), mean=0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-1173276.3051, 1151112.036), mean=[-958139.9801, 899625.9338], var=[0.0, 975315466583.2156])</t>
+    <t>Pbox: ~ (range=[(-1177109.1989, 1145022.3563), mean=[-961972.874, 893536.2541], var=[0.0, 973091732265.1278])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(6287.8333, 12908.9279), mean=[8972.4484, 10747.6656], var=[2263.3072, 2458002.3573])</t>
@@ -620,13 +626,13 @@
     <t>Pbox: ~ (range=[(26199.3056, 36575.2957), mean=31387.3006, var=2105886.2484)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(52769.2712, 233059.2029), mean=[112029.774, 184405.9213], var=[0.0, 2526329406.6396])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-56229.0175, 128695.4342), mean=[3031.4853, 80042.1527], var=[0.0, 2754591622.9547])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1248107.3113, 1261205.4815), mean=[-1023998.2255, 995868.2228], var=[0.0, 1147722189500.9197])</t>
+    <t>Pbox: ~ (range=[(52485.3531, 231778.4317), mean=[111745.8559, 183125.1501], var=[0.0, 2478637480.3153])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-56512.9356, 127414.663), mean=[2747.5672, 78761.3814], var=[0.0, 2704578358.6577])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1252224.1232, 1253835.0305), mean=[-1028115.0374, 988497.7719], var=[0.0, 1144244748548.64])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(86663.8489, 176534.3399), mean=[96997.9558, 164521.5772], var=[0.0, 1330156310.5005])</t>
@@ -644,13 +650,16 @@
     <t>Pbox: ~ (range=[(105211.4266, 222493.4577), mean=[125570.8946, 202133.9896], var=[0.0, 1881201697.7549])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(192819.9697, 318318.4753), mean=[193959.3276, 317179.1174], var=[0.0, 3937468732.9548])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1019577.3926, 1419453.2345), mean=[1063993.688, 1375036.9391], var=[0.0, 27539111834.423])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(552149.3282, 2996578.841), mean=[776258.414, 2731241.5823], var=[0.0, 1079375589128.369])</t>
+    <t>Pbox: ~ (range=[(200726.3687, 318318.4753), mean=[201865.7267, 317179.1174], var=[0.0, 3456975887.6759])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(880.701, 5533.461), mean=[918.9994, 5411.0893], var=[0.0, 5299876.4186])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1026947.8435, 1423570.0464), mean=[1071364.1389, 1379153.751], var=[0.0, 27003204956.2161])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(548032.5163, 2989208.39), mean=[772141.6021, 2723871.1314], var=[0.0, 1076003701562.1003])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(20334.24, 85217.52), mean=[20606.3164, 74087.3172], var=[0.0, 897900952.0362])</t>
@@ -659,16 +668,16 @@
     <t>Pbox: ~ (range=[(1519872.8034, 1584756.0834), mean=[1520144.8798, 1573625.8806], var=[0.0, 897900952.0362])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-1032606.7552, 1476706.0375), mean=[-808497.6694, 1211368.7789], var=[0.0, 1147722189500.9194])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1493474.3113, 1015838.4815), mean=[-1269365.2255, 750501.2228], var=[0.0, 1147722189500.9197])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-831.4031, 565.5077), mean=[-706.6437, 417.797], var=[0.0, 355684.1661])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-9216889.9871, 9688048.0588), mean=[-8571370.0497, 8747201.5216], var=[0.0, 80681321816865.1])</t>
+    <t>Pbox: ~ (range=[(-1036723.5671, 1469335.5866), mean=[-812614.4813, 1203998.328], var=[0.0, 1144244748548.64])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1497591.1232, 1008468.0305), mean=[-1273482.0374, 743130.7719], var=[0.0, 1144244748548.6401])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-833.6949, 561.4047), mean=[-708.9355, 413.6939], var=[0.0, 354606.4918])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-9248830.7691, 9664533.8803), mean=[-8603310.8317, 8723687.3431], var=[0.0, 80756990393662.77])</t>
   </si>
 </sst>
 </file>
@@ -1657,49 +1666,49 @@
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1923,7 +1932,7 @@
         <v>83</v>
       </c>
       <c r="R6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2259,7 +2268,7 @@
         <v>83</v>
       </c>
       <c r="R12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2329,49 +2338,49 @@
         <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2385,49 +2394,49 @@
         <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="R15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2441,49 +2450,49 @@
         <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2497,49 +2506,49 @@
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="R17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2549,53 +2558,53 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>48.849969</v>
-      </c>
-      <c r="D18">
-        <v>97.699938</v>
-      </c>
-      <c r="E18">
-        <v>97.699938</v>
-      </c>
-      <c r="F18">
-        <v>97.699938</v>
-      </c>
-      <c r="G18">
-        <v>97.699938</v>
-      </c>
-      <c r="H18">
-        <v>97.699938</v>
-      </c>
-      <c r="I18">
-        <v>97.699938</v>
-      </c>
-      <c r="J18">
-        <v>97.699938</v>
-      </c>
-      <c r="K18">
-        <v>97.699938</v>
-      </c>
-      <c r="L18">
-        <v>97.699938</v>
-      </c>
-      <c r="M18">
-        <v>97.699938</v>
-      </c>
-      <c r="N18">
-        <v>97.699938</v>
-      </c>
-      <c r="O18">
-        <v>97.699938</v>
-      </c>
-      <c r="P18">
-        <v>97.699938</v>
-      </c>
-      <c r="Q18">
-        <v>97.699938</v>
-      </c>
-      <c r="R18">
-        <v>1416.649101</v>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R18" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2651,7 +2660,7 @@
         <v>84</v>
       </c>
       <c r="R19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2662,52 +2671,52 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="R20" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2833,49 +2842,49 @@
         <v>668.16</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3043,7 +3052,7 @@
         <v>19</v>
       </c>
       <c r="R26" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3054,52 +3063,52 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R27" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3222,49 +3231,49 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="R30" t="s">
         <v>10</v>
@@ -3379,7 +3388,7 @@
         <v>85</v>
       </c>
       <c r="R32" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3435,7 +3444,7 @@
         <v>87</v>
       </c>
       <c r="R33" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3446,52 +3455,52 @@
         <v>168796</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R34" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="237">
   <si>
     <t>Cumulative Sum</t>
   </si>
@@ -53,238 +53,238 @@
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(76828.3135, 126182.8811), mean=[92200.1364, 106180.0023], var=[420247.6574, 131512653.9674])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(47257.078, 61595.1636), mean=[50687.3334, 58164.9082], var=[0.0, 19381080.2932])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-80153.4178, -16460.7646), mean=[-63611.2229, -37611.6552], var=[0.0, 304849778.2052])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(113037.5198, 163172.2354), mean=[131153.6057, 145056.1496], var=[918767.9918, 124470361.3568])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-44.6207, -9.1636), mean=[-35.4118, -20.9381], var=[0.0, 0.0094])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(125459.5062, 257568.4867), mean=[175766.9521, 216737.9781], var=[105916.6191, 1087833791.1855])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(78373.7771, 104364.4343), mean=[84618.0771, 98120.1343], var=[0.0, 62950552.8297])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(104363.7687, 108998.2887), mean=104828.0207, var=[858866.2597, 1366654.2596])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-133810.7368, 28923.4208), mean=[-81711.9394, -13890.5274], var=[0.0, 2135441393.6242])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(42901.0706, 192095.6562), mean=[88013.9195, 146982.8073], var=[0.0, 1489939927.3012])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-74.4912, 16.1014), mean=[-45.4883, -7.7327], var=[0.0, 0.0662])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(127708.4946, 262185.6621), mean=[178917.7523, 220623.2254], var=[109747.9794, 1127184397.7921])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(77303.6798, 103457.4671), mean=[83619.5852, 97141.5617], var=[0.0, 63388004.8207])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-130654.7812, 34610.6936), mean=[-77641.4348, -8949.2959], var=[0.0, 2196474526.81])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-23021.0755, 226706.3497), mean=[43886.6684, 159798.6058], var=[0.0, 4979911061.0093])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-72.7343, 19.2674), mean=[-43.2223, -4.982], var=[0.0, 0.0681])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(129676.7328, 266226.457), mean=[181675.2255, 224023.4617], var=[113156.9106, 1162196378.0529])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(76256.263, 102552.8163), mean=[82635.0039, 96174.0754], var=[0.0, 63770550.1895])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-127781.8922, 39698.9053), mean=[-73967.9047, -4514.1525], var=[0.0, 2250578389.9958])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-85144.1029, 266405.255), mean=[2046.6623, 179214.4899], var=[0.0, 11008074502.0564])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-71.135, 22.1), mean=[-41.1772, -2.513], var=[0.0, 0.0697])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(131400.0613, 269764.452), mean=[184089.5838, 227000.6034], var=[116184.4744, 1193291461.569])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(75234.3859, 101655.9407), mean=[81668.2458, 95222.0809], var=[0.0, 64105361.543])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-125161.6882, 44258.7774), mean=[-70646.4526, -526.1865], var=[0.0, 2298485908.6467])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-143835.9481, 310664.0324), mean=[-37512.9101, 204340.9944], var=[0.0, 19892689743.7282])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-69.6763, 24.6384), mean=[-39.3282, -0.2929], var=[0.0, 0.0712])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(132914.3204, 272873.2275), mean=[186211.0389, 229616.5667], var=[118877.7324, 1220953004.2476])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(74241.093, 100772.4845), mean=[80723.4693, 94290.1082], var=[0.0, 64399644.6456])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-122763.9728, 48360.8458), mean=[-67632.4049, 3073.2823], var=[0.0, 2340993567.5373])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-199417.4853, 359024.8781), mean=[-74850.6041, 234457.9969], var=[0.0, 31882929845.0189])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-68.3415, 26.922), mean=[-37.6503, 1.7109], var=[0.0, 0.0725])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(134255.3507, 275626.3639), mean=[188089.8029, 231933.2679], var=[121288.6519, 1245714743.1656])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(73279.6047, 99908.2677), mean=[79805.0124, 93382.86], var=[0.0, 64660131.0837])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-120558.7257, 52075.4705), mean=[-64881.1716, 6342.7226], var=[0.0, 2378954690.2267])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-252162.7024, 411100.3487), mean=[-110103.0386, 269040.6849], var=[0.0, 47196831806.2188])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-67.1139, 28.9899), mean=[-36.1187, 3.5309], var=[0.0, 0.0737])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(135458.9926, 278097.4419), mean=[189776.0878, 234012.6234], var=[123473.1833, 1268151326.9813])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(72353.3086, 99069.2776), mean=[78917.3838, 92505.2024], var=[0.0, 64893942.895])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-91210.5624, 82778.3759), mean=[-35042.8764, 36645.9876], var=[0.0, 2413283731.5081])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-274993.3366, 493878.7246), mean=[-116085.84, 334971.2281], var=[0.0, 66024907816.3568])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-50.7761, 46.0819), mean=[-19.508, 20.4005], var=[0.0, 0.0748])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(136561.0866, 280360.0418), mean=[191320.1054, 235916.5494], var=[125490.5114, 1288870621.8935])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(71465.7511, 98261.6605), mean=[78065.2788, 91662.1328], var=[0.0, 65107973.8376])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-89300.8513, 85928.5333), mean=[-32684.2791, 39430.188], var=[0.0, 2444929509.923])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-295395.6272, 579807.2579), mean=[-120191.2399, 404602.8707], var=[0.0, 88529421094.4281])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-49.7129, 47.8356), mean=[-18.195, 21.9504], var=[0.0, 0.0758])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(137597.473, 282487.7441), mean=[192772.0678, 237706.9621], var=[127402.4788, 1308507793.1493])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(65349.6969, 93617.5058), mean=[71982.6065, 86984.5962], var=[0.0, 76944369.1476])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-83620.3103, 94172.2898), mean=[-26581.5125, 47329.7558], var=[0.0, 2542027296.2089])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-313503.8728, 668708.6151), mean=[-122476.1883, 477680.9306], var=[0.0, 114851490769.1307])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-46.5506, 52.4248), mean=[-14.7977, 26.348], var=[0.0, 0.0788])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(138603.9924, 284554.1294), mean=[194182.1869, 239445.778], var=[129273.1829, 1327721162.0985])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(64550.852, 92891.6688), mean=[71216.2164, 86226.3043], var=[0.0, 77155169.6657])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-81887.9538, 97037.52), mean=[-24439.0344, 49860.694], var=[0.0, 2571668153.5988])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-329406.1057, 760475.2024), mean=[-122968.0702, 554037.1668], var=[0.0, 145117885184.9961])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-45.5863, 54.0199), mean=[-13.605, 27.757], var=[0.0, 0.0797])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(139616.4852, 286632.7781), mean=[195600.6747, 241194.9132], var=[131168.7449, 1347189838.7969])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(63802.2606, 92216.5185), mean=[70500.3064, 85518.4727], var=[0.0, 77367018.3255])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-80200.3107, 99864.7601), mean=[-22338.7789, 52351.6169], var=[0.0, 2601656119.101])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-343144.2284, 855069.0297), mean=[-121666.6988, 633591.5002], var=[0.0, 179443153258.4351])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-44.6468, 55.5938), mean=[-12.4358, 29.1437], var=[0.0, 0.0806])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(140670.7918, 288797.2707), mean=[197077.7431, 243016.2841], var=[133157.2527, 1367613130.157])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(63108.0289, 91598.7608), mean=[69840.1428, 84866.647], var=[0.0, 77587718.4773])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-78528.2464, 102723.4843), mean=[-20236.9686, 54860.1058], var=[0.0, 2633065164.2243])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-354714.1424, 952521.5814), mean=[-118524.4, 716331.839], var=[0.0, 217952605145.656])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-43.7159, 57.1852), mean=[-11.2657, 30.5401], var=[0.0, 0.0816])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(141802.7528, 291121.1877), mean=[198663.604, 244971.807], var=[135308.8758, 1389711723.6462])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(62472.3861, 91045.2246), mean=[69241.1134, 84276.4973], var=[0.0, 77824607.8033])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-76842.7492, 105683.0442), mean=[-18090.0336, 57443.5902], var=[0.0, 2666996687.266])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-364065.8717, 1052933.6929), mean=[-113446.0122, 802313.8334], var=[0.0, 260806453740.1442])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-42.7776, 58.8328), mean=[-10.0706, 31.9783], var=[0.0, 0.0827])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(143048.2086, 293678.1095), mean=[200408.4695, 247123.3981], var=[137696.1535, 1414230646.5338])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(61899.6779, 90562.8555), mean=[68708.7338, 83753.7995], var=[0.0, 78085223.4608])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-75114.9243, 108812.6742), mean=[-15854.4215, 60159.3927], var=[0.0, 2704578358.6577])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-371103.6794, 1156475.4344), mean=[-106287.3419, 891659.097], var=[0.0, 308171848153.318])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-41.8158, 60.575), mean=[-8.826, 33.4902], var=[0.0, 0.0838])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-2073447.1343, 2938671.1732), mean=[-1757184.0709, 2512085.27], var=[0.0, 4957351530260.664])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1667.3898, 1122.8093), mean=[-1491.3291, 885.333], var=[0.0, 1536305.0928])</t>
+    <t>Pbox: ~ (range=[(70908.1652, 115638.3378), mean=316192.378, var=[316192.378, 109583846.2409])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(46952.2929, 60272.9421), mean=[50039.5228, 57185.7123], var=[0.0, 17373457.9657])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-91526.4902, -33475.6684), mean=[0.0, 258180992.9184], var=[0.0, 258180992.9184])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(100619.7154, 146157.3316), mean=[674874.5119, 854507.5119], var=[674874.5119, 104856315.6775])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-50.9519, -18.6356), mean=0.0, var=[0.0, 0.008])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(115791.9912, 236044.6315), mean=[161068.6924, 199297.1738], var=[41910.2857, 918963858.6184])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(77748.9416, 101843.9238), mean=[83368.8116, 96224.0538], var=[0.0, 56078732.5218])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(113608.6428, 118243.1628), mean=[372674.6948, 413091.6176], var=[372674.6948, 1834216.8103])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-150019.7394, -1037.5969), mean=[0.0, 1832032590.2388], var=[0.0, 1832032590.2388])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(9724.8448, 145119.7347), mean=[50326.4088, 104518.1707], var=[0.0, 1245074406.7649])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-83.5146, -0.5776), mean=0.0, var=[0.0, 0.0568])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(117867.6796, 240275.9701), mean=[163956.0115, 202869.777], var=[43426.3217, 952205871.8553])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(76680.6531, 100922.4524), mean=[82364.968, 95238.1375], var=[0.0, 56449466.5654])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-147022.5795, 4262.0302), mean=[0.0, 1883887697.9698], var=[0.0, 1883887697.9698])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-77196.0714, 149381.765), mean=[0.0, 89164.7954], var=[0.0, 4148237309.9237])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-81.8461, 2.3726), mean=0.0, var=[0.0, 0.0584])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(119684.2516, 243979.0937), mean=[166482.895, 205996.3979], var=[44775.2062, 981782765.6226])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(75634.8193, 100005.108), mean=[81375.686, 94264.2412], var=[0.0, 56773609.4504])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-144288.6632, 9010.9877), mean=[0.0, 1929850194.148], var=[0.0, 1929850194.148])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-160528.2138, 158392.7527), mean=[0.0, 79921.064], var=[0.0, 9153134744.5265])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-80.3241, 5.0163), mean=0.0, var=[0.0, 0.0598])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(121274.7858, 247221.4342), mean=[168695.356, 208733.9704], var=[45973.1868, 1008050802.3057])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(74614.3282, 99097.1183), mean=[80404.8021, 93306.6444], var=[0.0, 57057260.4157])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-141790.1393, 13273.8192), mean=[0.0, 1970544533.1401], var=[0.0, 1970544533.1401])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-240613.3456, 171666.5719), mean=[0.0, 75975.8377], var=[0.0, 16520358131.4756])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-78.9332, 7.3894), mean=0.0, var=[0.0, 0.0611])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(122672.3609, 250070.4231), mean=[170639.4075, 211139.4284], var=[47038.8856, 1031418304.0337])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(73622.2532, 98203.8962), mean=[79456.3918, 92369.7576], var=[0.0, 57306541.7634])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-139499.3421, 17114.8832), mean=[0.0, 2006648854.4601], var=[0.0, 2006648854.4601])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-317749.9979, 188781.455), mean=[0.0, 76671.2619], var=[0.0, 26453784386.1153])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-77.658, 9.5277), mean=0.0, var=[0.0, 0.0622])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(123910.0556, 252593.4921), mean=[172361.0625, 213269.7057], var=[47992.8655, 1052336153.1818])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(72661.8434, 97331.0308), mean=[78534.7103, 91458.1639], var=[0.0, 57527167.4381])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-137388.782, 20598.362), mean=[0.0, 2038889158.3666], var=[0.0, 2038889158.3666])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-392193.6455, 209379.8171), mean=[0.0, 81526.1196], var=[0.0, 39131781675.7141])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-76.483, 11.4669), mean=0.0, var=[0.0, 0.0632])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(125020.9486, 254858.0731), mean=[173906.3343, 215181.7364], var=[48857.2656, 1071289792.7952])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(71736.5153, 96484.2782), mean=[77644.1831, 90576.6105], var=[0.0, 57725178.9235])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-108125.6051, 51093.8023), mean=[0.0, 9574.6528], var=[0.0, 2068042798.9036])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-436851.343, 260473.6194), mean=[0.0, 117456.8725], var=[0.0, 54710153442.0632])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-60.1925, 28.4434), mean=[0.0, 5.3301], var=[0.0, 0.0641])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(126038.1186, 256931.5975), mean=[175321.2356, 216932.4543], var=[49655.5048, 1088792726.9334])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(70849.8442, 95669.5534), mean=[76789.4192, 89729.9785], var=[0.0, 57906421.3923])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-106293.7102, 54053.9979), mean=[0.0, 12205.4871], var=[0.0, 2094916079.8006])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-479198.4773, 314527.6173), mean=[0.0, 156843.6687], var=[0.0, 73321539935.9052])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-59.1727, 30.0914), mean=[0.0, 6.4922], var=[0.0, 0.0649])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(126994.6444, 258881.4972), mean=[176651.7798, 218578.7934], var=[50412.0537, 1105381520.9346])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(64800.5102, 91067.1425), mean=[70770.1289, 85097.5238], var=[0.0, 68944802.6678])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-100734.7735, 62053.2316), mean=[0.0, 19894.9509], var=[0.0, 2181887926.2572])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-519362.325, 371375.8028), mean=[0.0, 199450.8868], var=[0.0, 95081253570.9286])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-56.0781, 34.5444), mean=[0.0, 6.7618], var=[0.0, 0.0676])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(127923.6046, 260775.2039), mean=[177943.9797, 220177.6876], var=[51152.275, 1121612301.6014])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(64002.4749, 90334.8141), mean=[70001.3029, 84335.9861], var=[0.0, 69123944.0108])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-99073.485, 64744.9736), mean=[0.0, 22285.8302], var=[0.0, 2207078721.9386])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-557427.7264, 430915.7304), mean=[0.0, 245121.4984], var=[0.0, 120092851212.2204])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-55.1533, 36.0429), mean=[0.0, 6.8398], var=[0.0, 0.0684])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(128858.0779, 262680.1491), mean=[179243.8484, 221786.0707], var=[51902.3324, 1138058757.3062])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(63254.6978, 89653.134), mean=[69282.939, 83624.8929], var=[0.0, 69303962.3669])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-97457.3316, 67397.6959), mean=[0.0, 24635.8671], var=[0.0, 2232563104.2366])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-593437.2223, 493108.3803), mean=[0.0, 293778.6036], var=[0.0, 148449876670.6568])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-54.2536, 37.5197), mean=[0.0, 6.9188], var=[0.0, 0.0692])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(129831.143, 264663.7647), mean=[180597.3991, 223460.8767], var=[52689.1677, 1155311638.0183])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(62561.3141, 89028.5769), mean=[68620.2165, 82969.6745], var=[0.0, 69491487.2844])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-95859.7094, 70074.6952), mean=[0.0, 26997.6545], var=[0.0, 2259253656.6223])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-627391.1829, 557978.0294), mean=[0.0, 345407.2613], var=[0.0, 180254700320.21])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-53.3642, 39.0099), mean=[0.0, 7.0015], var=[0.0, 0.07])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(130875.8786, 266793.4822), mean=[182050.6447, 225259.0396], var=[53540.5462, 1173979755.2505])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(61926.5816, 88467.7405), mean=[68018.4362, 82375.8859], var=[0.0, 69692749.8554])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-94254.1373, 72839.1452), mean=[0.0, 29423.6366], var=[0.0, 2288086049.4025])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-659247.9313, 625612.1286), mean=[0.0, 400054.255], var=[0.0, 215638291771.6542])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-52.4704, 40.5489), mean=[0.0, 7.0909], var=[0.0, 0.0709])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(132025.3634, 269136.7335), mean=[183649.5982, 227237.4932], var=[54485.1713, 1194692481.9267])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(61354.8751, 87977.3391), mean=[67483.0254, 81849.1887], var=[0.0, 69914149.3277])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-92614.2511, 75754.103), mean=[0.0, 31966.1496], var=[0.0, 2320018054.5304])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-688923.8593, 696161.1855), mean=[0.0, 457826.4818], var=[0.0, 254737266768.6128])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-51.5575, 42.1716), mean=[0.0, 7.1898], var=[0.0, 0.0719])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-2575465.7726, 2011948.6284), mean=[0.0, 1628021.3155], var=[0.0, 4170040808270.287])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1943.9065, 609.864), mean=[0.0, 396.1352], var=[0.0, 1292314.0294])</t>
   </si>
   <si>
     <t>Yield Crop 1</t>
@@ -374,310 +374,358 @@
     <t>Financial Balance</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(3377.0687, 5546.5003), mean=[4090.1072, 4617.8839], var=[2059.9727, 226745.2202])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1255.2382, 1752.3636), mean=1503.8009, var=4834.0111)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(13243.4068, 18488.3342), mean=15865.8705, var=538089.8302)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3628.8745, 7674.0793), mean=[5111.5598, 6191.3941], var=[1249.703, 734568.2353])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(9340.7095, 13731.0975), mean=11535.9035, var=[0.0, 0.0003])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(30.369, 190.809), mean=85.4916, var=4935.5744)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(15233.1499, 78925.8031), mean=[31775.3448, 57774.9125], var=[0.0, 304849778.2052])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-43546.8922, 20145.7611), mean=[-27004.6972, -1005.1295], var=[0.0, 304849778.2052])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-0.0, -0.0), mean=-0.0, var=0.0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(115213.5822, 178906.2354), mean=[131755.7771, 157755.3448], var=[0.0, 304849778.2052])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5514.7036, 11321.6917), mean=[7869.2279, 9426.1706], var=[1740.9481, 1890708.584])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2509.8357, 3503.8326), mean=3006.8341, var=19326.1754)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(22977.9315, 32078.1265), mean=27528.029, var=1619858.9862)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7255.8966, 15344.2413), mean=[10220.5103, 12379.6276], var=[4996.2606, 2936773.2485])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(15929.3754, 23416.6158), mean=19672.9956, var=[0.0, 0.0003])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(60.738, 381.618), mean=170.9832, var=19742.2975)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(21095.0719, 179194.7095), mean=[73193.8693, 136380.7613], var=[0.0, 1935096543.1757])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1404.72, 6039.24), mean=1868.972, var=[858866.2597, 1366654.2596])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-87903.2168, 74830.9408), mean=[-35804.4193, 32016.9926], var=[0.0, 2135441393.6242])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(31402.8453, 257829.6562), mean=[89951.0657, 204815.7622], var=[0.0, 5069413283.2385])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5613.5602, 11524.6445), mean=[8010.2917, 9595.1442], var=[1803.924, 1959101.8719])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(23389.8342, 32653.1594), mean=28021.4968, var=1678454.7333)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24251.0275, 184881.9823), mean=[77264.3739, 141321.9928], var=[0.0, 1993268726.737])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-84747.2612, 80518.2136), mean=[-31733.9148, 36958.2241], var=[0.0, 2196474526.81])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-99251.9359, 292440.3497), mean=[-12477.5825, 214417.3202], var=[0.0, 18734336061.7364])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5700.0762, 11702.2618), mean=[8133.746, 9743.0242], var=[1859.9565, 2019954.414])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(23750.3174, 33156.4086), mean=28453.363, var=1730589.9688)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(27123.9165, 189970.194), mean=[80937.9041, 145757.1363], var=[0.0, 2044869803.733])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-81874.3721, 85606.4254), mean=[-28060.3846, 41393.3676], var=[0.0, 2250578389.9958])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-227033.8281, 332139.255), mean=[-120167.704, 232673.587], var=[0.0, 42872228306.1979])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5775.8269, 11857.7781), mean=[8241.8388, 9872.5034], var=[1909.7205, 2073999.1972])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24065.9453, 33597.038), mean=28831.4916, var=1776892.6769)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(29744.1206, 194530.0661), mean=[84259.3562, 149745.1022], var=[0.0, 2090586503.0179])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-79254.1681, 90166.2974), mean=[-24738.9325, 45381.3335], var=[0.0, 2298485908.6467])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-352195.5163, 376398.0324), mean=[-231448.5774, 258067.4753], var=[0.0, 78085193854.4331])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5842.3877, 11994.4276), mean=[8336.818, 9986.2745], var=[1953.9895, 2122076.3176])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24343.2821, 33984.2115), mean=29163.7468, var=1818082.6076)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(32141.836, 198632.1345), mean=[87273.4038, 153344.5711], var=[0.0, 2131169542.8124])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-76856.4527, 94268.3658), mean=[-21724.8849, 48980.8024], var=[0.0, 2340993567.5373])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-474959.4891, 424758.8781), mean=[-342247.1138, 289456.6086], var=[0.0, 124832933843.293])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5901.3341, 12115.4446), mean=[8420.9318, 10087.0303], var=[1993.6177, 2165113.4366])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24588.8921, 34327.0929), mean=29457.9925, var=1854954.532)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(34347.083, 202346.7593), mean=[90024.6371, 156614.0113], var=[0.0, 2167426779.7701])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-74651.2056, 97982.9906), mean=[-18973.6515, 52250.2427], var=[0.0, 2378954690.2267])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-595518.2148, 476834.3487), mean=[-451256.1794, 325989.0798], var=[0.0, 183592734460.4897])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5954.2414, 12224.0634), mean=[8496.4281, 10177.4637], var=[2029.5247, 2204109.3218])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24809.3393, 34634.8462), mean=29722.0928, var=1888364.1412)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(36389.715, 205744.1333), mean=[92557.401, 159611.745], var=[0.0, 2200226782.3656])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-72608.5737, 101380.3647), mean=[-16440.8876, 55247.9763], var=[0.0, 2413283731.5081])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-686728.7772, 559612.7246), mean=[-531370.0409, 393871.4666], var=[0.0, 254846552667.9293])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6002.6851, 12323.5183), mean=[8565.5551, 10260.2676], var=[2062.6835, 2240120.4745])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25011.188, 34916.6352), mean=29963.9116, var=1919216.5897)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(38299.4261, 208894.2907), mean=[94915.9983, 162395.9454], var=[0.0, 2230472790.474])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-70698.8626, 104530.522), mean=[-14082.2903, 58032.1767], var=[0.0, 2444929509.923])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-776029.6285, 645541.2579), mean=[-609927.6008, 465115.1501], var=[0.0, 339058901232.6394])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6048.2406, 12417.0437), mean=[8630.5606, 10338.1346], var=[2094.1104, 2274250.843])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25201.0024, 35181.6238), mean=30191.3131, var=1948457.6821)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(10658.4427, 19542.4085), mean=[11420.7941, 18591.5538], var=[0.0, 19731212.1733])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(43979.9672, 217138.0473), mean=[101018.7649, 170295.5132], var=[0.0, 2323003836.9099])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-65018.3215, 112774.2786), mean=[-7979.5237, 65931.7445], var=[0.0, 2542027296.2089])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-859649.9388, 739713.5477), mean=[-683128.0511, 544778.0147], var=[0.0, 437541619145.3553])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6092.4832, 12507.8738), mean=[8693.6927, 10413.7576], var=[2124.8591, 2307644.6224])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25385.3466, 35438.9758), mean=30412.1612, var=1977067.7038)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(45712.3236, 220003.2774), mean=[103161.2431, 172826.4514], var=[0.0, 2351366596.2288])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-63285.965, 115639.5087), mean=[-5837.0456, 68462.6827], var=[0.0, 2571668153.5988])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-941537.8926, 836751.0677), mean=[-754928.5163, 627477.0733], var=[0.0, 549901633555.4595])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6136.9884, 12599.243), mean=[8757.1996, 10489.8293], var=[2156.0164, 2341482.1392])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25570.7848, 35697.8551), mean=30634.32, var=2006057.8961)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(47399.9667, 222830.5175), mean=[105261.4985, 175317.3743], var=[0.0, 2380069157.5382])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-61598.3219, 118466.7488), mean=[-3736.7902, 70953.6057], var=[0.0, 2601656119.101])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1021738.2033, 936615.8278), mean=[-825336.8548, 713143.8488], var=[0.0, 676373278637.7455])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6183.3315, 12694.3855), mean=[8823.3291, 10569.0427], var=[2188.7015, 2376978.8231])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25763.8813, 35967.4257), mean=30865.6535, var=2036469.5751)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(49072.031, 225689.2418), mean=[107363.3088, 177825.8632], var=[0.0, 2410140223.6675])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-59926.2576, 121325.4731), mean=[-1634.9799, 73462.0945], var=[0.0, 2633065164.2243])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1100266.4497, 1039339.3121), mean=[-894353.2996, 801806.5363], var=[0.0, 817290548126.4517])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6233.088, 12796.5357), mean=[8894.3294, 10654.0906], var=[2224.0676, 2415387.2645])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25971.2002, 36256.8512), mean=31114.0257, var=2069375.8937)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(50757.5282, 228648.8016), mean=[109510.2438, 180409.3476], var=[0.0, 2442635483.4635])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-58240.7605, 124285.0329), mean=[511.9551, 76045.579], var=[0.0, 2666996687.266])</t>
+    <t>Pbox: ~ (range=[(3039.3619, 4991.8502), mean=[3681.0965, 4156.0955], var=[1668.5779, 183663.6284])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(88.1342, 103.6872), mean=[3.8684, 20.8366], var=[3.8684, 20.8366])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(70908.1652, 115638.3378), mean=[316192.378, 109583846.2409], var=[316192.378, 109583846.2409])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1173.393, 1620.8059), mean=3915.549, var=3915.549)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(13301.5626, 18021.9974), mean=435852.7625, var=435852.7625)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3430.137, 7070.8214), mean=[4764.5538, 5736.4046], var=[1012.2594, 595000.2706])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(9258.3512, 13610.0285), mean=[37.5332, 9920.5602], var=[0.0, 0.0003])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(30.369, 190.809), mean=[129.7112, 4935.5744], var=4935.5744)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10635.2231, 68686.0449), mean=[25523.1985, 49650.2434], var=[0.0, 258180992.9184])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-55011.4026, 3039.4192), mean=[0.0, 258180992.9184], var=[0.0, 258180992.9184])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-0.0, -0.0), mean=0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(-1177109.1989, 1145022.3563), mean=[-961972.874, 893536.2541], var=[0.0, 973091732265.1278])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6287.8333, 12908.9279), mean=[8972.4484, 10747.6656], var=[2263.3072, 2458002.3573])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(26199.3056, 36575.2957), mean=31387.3006, var=2105886.2484)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(52485.3531, 231778.4317), mean=[111745.8559, 183125.1501], var=[0.0, 2478637480.3153])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-56512.9356, 127414.663), mean=[2747.5672, 78761.3814], var=[0.0, 2704578358.6577])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1252224.1232, 1253835.0305), mean=[-1028115.0374, 988497.7719], var=[0.0, 1144244748548.64])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(86663.8489, 176534.3399), mean=[96997.9558, 164521.5772], var=[0.0, 1330156310.5005])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1971602.5627, 4016156.2335), mean=[2191202.3352, 3759567.532], var=[0.0, 709218067605.1162])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(36392.9374, 50806.02), mean=[39809.1515, 47389.8059], var=[0.0, 20027028.1448])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(360271.6575, 502953.88), mean=[394108.3395, 469117.198], var=[0.0, 1958118470.3067])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(105211.4266, 222493.4577), mean=[125570.8946, 202133.9896], var=[0.0, 1881201697.7549])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(200726.3687, 318318.4753), mean=[201865.7267, 317179.1174], var=[0.0, 3456975887.6759])</t>
+    <t>Pbox: ~ (range=[(103840.5098, 161891.3316), mean=142855.53, var=[0.0, 258180992.9184])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(4963.2332, 10189.5225), mean=[7082.3051, 8483.5536], var=[1410.1679, 1531473.953])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(143.9218, 211.6497), mean=[184.3463, 200.8353], var=[2.7548, 332.1653])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2346.1871, 3240.7844), mean=15654.202, var=15654.202)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(23078.8347, 31269.0102), mean=1312085.7788, var=1312085.7788)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6858.5231, 14138.0334), mean=[9526.6754, 11469.881], var=[4046.9711, 2378786.3313])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(15764.6587, 23174.4779), mean=[63.9097, 16892.2353], var=[0.0, 0.0003])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(60.738, 381.618), mean=[493.5209, 19742.2975], var=19742.2975)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(13948.0674, 158295.6899), mean=[60836.985, 119763.1365], var=[0.0, 1646398525.0066])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1404.72, 6039.24), mean=[372674.6948, 374079.4148], var=[372674.6948, 1834216.8103])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-104295.0954, 44687.0471), mean=[0.0, 6154.4937], var=[0.0, 1832032590.2388])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3820.7704, 210853.7347), mean=[56514.1687, 163141.2302], var=[0.0, 4312657245.2097])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5052.2042, 10372.18), mean=[7209.2626, 8635.6298], var=[1461.1784, 1586872.5162])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(146.5017, 215.4437), mean=[187.6509, 204.4355], var=[2.8545, 344.1808])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(23492.5461, 31829.5388), mean=1359548.334, var=1359548.334)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(16945.2272, 163595.317), mean=[64657.239, 124391.3264], var=[0.0, 1695621392.967])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-101297.9356, 49986.6742), mean=[0.0, 10782.6837], var=[0.0, 1883887697.9698])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-143201.8091, 215115.765), mean=[0.0, 144895.0384], var=[0.0, 15888809552.941])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5130.0686, 10532.0357), mean=[7320.3714, 8768.7218], var=[1506.5648, 1636163.0754])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(148.7596, 218.7641), mean=[190.5429, 207.5863], var=[2.9431, 354.8715])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(23854.6123, 32320.0944), mean=1401777.8747, var=1401777.8747)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(19679.1436, 168344.2745), mean=[68111.7324, 128552.5225], var=[0.0, 1739281142.3082])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-98564.0192, 54735.6317), mean=[0.0, 14943.8797], var=[0.0, 1929850194.148])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-287490.4723, 224126.7527), mean=[0.0, 134607.6515], var=[0.0, 36291828668.683])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5198.2442, 10672.0003), mean=[7417.6549, 8885.253], var=[1546.8736, 1679939.3497])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(150.7365, 221.6714), mean=[193.0751, 210.345], var=[3.0219, 364.3663])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24171.6263, 32749.6097), mean=1439283.0682, var=1439283.0682)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(22177.6675, 172607.106), mean=[71241.3795, 132300.6385], var=[0.0, 1777959741.8622])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-96065.4953, 58998.4632), mean=[0.0, 18691.9957], var=[0.0, 1970544533.1401])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-429280.6115, 237400.5719), mean=[0.0, 130903.0705], var=[0.0, 66018985834.6955])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5258.1489, 10794.9848), mean=[7503.1362, 8987.647], var=[1582.7315, 1718881.8173])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(152.4736, 224.2259), mean=[195.3001, 212.769], var=[3.0919, 372.8126])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24450.181, 33127.0174), mean=1472646.9121, var=1472646.9121)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24468.4646, 176448.1699), mean=[74086.8757, 135689.3628], var=[0.0, 1812293231.431])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-93774.6982, 62839.5271), mean=[0.0, 22080.72], var=[0.0, 2006648854.4601])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-568779.9537, 254515.455), mean=[0.0, 132743.4125], var=[0.0, 105452558495.9617])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5311.2007, 10903.9001), mean=[7578.8386, 9078.3273], var=[1614.8303, 1753741.8836])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(154.012, 226.4882), mean=[197.2706, 214.9157], var=[3.1546, 380.3735])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24696.8695, 33461.2502), mean=1502513.1709, var=1502513.1709)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(26579.0247, 179931.6488), mean=[76688.8234, 138772.1756], var=[0.0, 1842965780.0771])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-91664.138, 66323.006), mean=[0.0, 25163.5328], var=[0.0, 2038889158.3666])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-706168.7357, 275113.8171), mean=[0.0, 139353.0751], var=[0.0, 154989106565.942])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5358.8173, 11001.657), mean=[7646.7853, 9159.7174], var=[1643.915, 1785328.5506])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(155.3928, 228.5188), mean=[199.0392, 216.8425], var=[3.2114, 387.2244])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24918.2848, 33761.241), mean=1529574.9544, var=1529574.9544)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(28536.6704, 183121.5577), mean=[79087.5878, 141602.4082], var=[0.0, 1870712529.5473])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-89706.4924, 69512.915), mean=[0.0, 27993.7655], var=[0.0, 2068042798.9036])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-814294.3407, 326207.6194), mean=[0.0, 177040.4872], var=[0.0, 215028932688.803])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5402.4166, 11091.1665), mean=[7708.9996, 9234.2408], var=[1670.7736, 1814497.5843])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(156.657, 230.378), mean=[200.6586, 218.6067], var=[3.2639, 393.551])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25121.0198, 34035.9223), mean=1554565.4377, var=1554565.4377)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(30368.5652, 186081.7533), mean=[81323.4803, 144233.2425], var=[0.0, 1896297850.7282])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-87874.5975, 72473.1105), mean=[0.0, 30624.5997], var=[0.0, 2094916079.8006])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-920588.0509, 380261.6173), mean=[0.0, 217878.1203], var=[0.0, 285957716002.544])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5443.4165, 11175.3393), mean=[7767.5045, 9304.3211], var=[1696.2295, 1842143.1829])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(157.8459, 232.1264), mean=[202.1814, 220.2658], var=[3.3136, 399.5471])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25311.6677, 34294.227), mean=1578250.7225, var=1578250.7225)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(10559.6127, 19348.6981), mean=[11314.8952, 18407.2686], var=[0.0, 19312005.7234])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(35927.5019, 194080.987), mean=[87262.4199, 151922.7064], var=[0.0, 1978849335.4125])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-82315.6609, 80472.3442), mean=[0.0, 38314.0636], var=[0.0, 2181887926.2572])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1021322.8244, 442314.8489), mean=[0.0, 266872.8691], var=[0.0, 368935278302.9938])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5483.2349, 11257.0864), mean=[7824.3235, 9372.3818], var=[1721.1359, 1869192.1441])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(159.0006, 233.8244), mean=[203.6604, 221.877], var=[3.3623, 405.4138])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25496.8215, 34545.0878), mean=1601424.84, var=1601424.84)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(37588.7904, 196772.729), mean=[89292.8179, 154313.5856], var=[0.0, 2002864099.3202])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-80654.3723, 83164.0862), mean=[0.0, 40704.9428], var=[0.0, 2207078721.9386])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1120396.3094, 507059.8224), mean=[0.0, 318713.2275], var=[0.0, 463581883279.7395])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5523.2895, 11339.3187), mean=[7881.4796, 9440.8464], var=[1746.3733, 1896600.5327])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(160.1621, 235.5324), mean=[205.1481, 223.4978], var=[3.4116, 411.3585])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25683.074, 34797.4373), mean=1624906.8959, var=1624906.8959)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(39204.9438, 199425.4513), mean=[91280.3224, 156663.6225], var=[0.0, 2027165713.5527])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-79038.219, 85816.8085), mean=[0.0, 43054.9797], var=[0.0, 2232563104.2366])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1217853.641, 574457.5183), mean=[0.0, 373332.7372], var=[0.0, 570093119765.9349])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5564.9984, 11424.947), mean=[7940.9962, 9512.1385], var=[1772.8482, 1925352.8467])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(161.3715, 237.3111), mean=[206.6973, 225.1855], var=[3.4633, 417.5946])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25877.0184, 35060.2083), mean=1649540.3558, var=1649540.3558)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(40802.566, 202102.4506), mean=[93264.716, 159025.4099], var=[0.0, 2052625089.9859])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-77440.5968, 88493.8078), mean=[0.0, 45416.7671], var=[0.0, 2259253656.6223])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1313713.3504, 644532.2135), mean=[0.0, 430752.7153], var=[0.0, 688747434343.1719])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5609.7792, 11516.8821), mean=[8004.8965, 9588.6815], var=[1801.4948, 1956463.6843])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(162.6701, 239.2207), mean=[208.3605, 226.9976], var=[3.5193, 424.3423])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(26085.2477, 35342.3336), mean=1676194.4739, var=1676194.4739)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(42408.1381, 204866.9006), mean=[95285.5821, 161451.3921], var=[0.0, 2080135850.2283])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-75835.0247, 91258.2579), mean=[0.0, 47842.7493], var=[0.0, 2288086049.4025])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1407967.4877, 717371.3587), mean=[0.0, 491033.8667], var=[0.0, 819911499512.8839])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5659.05, 11618.0351), mean=[8075.2036, 9672.899], var=[1833.2789, 1990981.9094])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(164.0988, 241.3217), mean=[210.1906, 228.9913], var=[3.5814, 431.8291])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(26314.3548, 35652.7459), mean=1705767.8612, var=1705767.8612)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(44048.0243, 207781.8584), mean=[97382.4768, 163993.905], var=[0.0, 2110614222.5992])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-74195.1385, 94173.2156), mean=[0.0, 50385.2622], var=[0.0, 2320018054.5304])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1500581.7388, 793125.4617), mean=[0.0, 554321.9289], var=[0.0, 963972821880.9825])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(77997.464, 158880.9059), mean=[87298.1603, 148069.4194], var=[0.0, 1077426611.5054])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2261.7381, 3300.1637), mean=[2394.9384, 3247.0021], var=[0.0, 221907.9828])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1819677.069, 3680543.8836), mean=[2017316.8642, 3449614.0522], var=[0.0, 590276885701.5228])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(34020.0124, 46991.7868), mean=[37094.6051, 43917.1941], var=[0.0, 16221892.7973])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(361853.7212, 490267.7214), mean=[392306.735, 459814.7077], var=[0.0, 1586075960.9484])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(99449.4604, 205003.2884), mean=[117772.9817, 186679.7672], var=[0.0, 1523773375.1815])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(198733.2973, 315098.0405), mean=[199860.8738, 313970.464], var=[0.0, 3385188367.5072])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(880.701, 5533.461), mean=[918.9994, 5411.0893], var=[0.0, 5299876.4186])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(1026947.8435, 1423570.0464), mean=[1071364.1389, 1379153.751], var=[0.0, 27003204956.2161])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(548032.5163, 2989208.39), mean=[772141.6021, 2723871.1314], var=[0.0, 1076003701562.1003])</t>
+    <t>Pbox: ~ (range=[(1018401.9447, 1386359.0505), mean=[1058376.6106, 1346384.3846], var=[0.0, 23524982077.8908])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(433318.0184, 2662141.939), mean=[635016.1957, 2423338.4062], var=[0.0, 901420104325.6318])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(20334.24, 85217.52), mean=[20606.3164, 74087.3172], var=[0.0, 897900952.0362])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(1519872.8034, 1584756.0834), mean=[1520144.8798, 1573625.8806], var=[0.0, 897900952.0362])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1036723.5671, 1469335.5866), mean=[-812614.4813, 1203998.328], var=[0.0, 1144244748548.64])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1497591.1232, 1008468.0305), mean=[-1273482.0374, 743130.7719], var=[0.0, 1144244748548.6401])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-833.6949, 561.4047), mean=[-708.9355, 413.6939], var=[0.0, 354606.4918])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-9248830.7691, 9664533.8803), mean=[-8603310.8317, 8723687.3431], var=[0.0, 80756990393662.77])</t>
+    <t>Pbox: ~ (range=[(1656167.6248, 1721050.9048), mean=[1656439.7012, 1709920.702], var=[0.0, 897900952.0362])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1287732.8863, 1005974.3142), mean=[0.0, 767170.7814], var=[0.0, 963972821880.9828])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1745948.7388, 547758.4617), mean=[0.0, 308954.9289], var=[0.0, 963972821880.9828])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-971.9532, 304.932), mean=[0.0, 171.9923], var=[0.0, 298739.427])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-11175182.0454, 6133143.8881), mean=[0.0, 5286382.0046], var=[0.0, 67747981945440.76])</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>58780.04202809719</v>
+        <v>65646.62568235392</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1379,52 +1427,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9300.994375</v>
+        <v>9209.5563203125</v>
       </c>
       <c r="D7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="E7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="F7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="G7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="H7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="I7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="J7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="K7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="L7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="M7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="N7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="O7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="P7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="Q7">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="R7">
-        <v>539457.67375</v>
+        <v>534154.2665781251</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1666,49 +1714,49 @@
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="O2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="Q2" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="R2" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1775,52 +1823,52 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="O4" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="P4" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="Q4" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="R4" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1887,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1932,7 +1980,7 @@
         <v>83</v>
       </c>
       <c r="R6" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2268,7 +2316,7 @@
         <v>83</v>
       </c>
       <c r="R12" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2335,52 +2383,52 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="R14" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2391,52 +2439,52 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="O15" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="Q15" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="R15" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2447,52 +2495,52 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R16" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2503,52 +2551,52 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q17" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="R17" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2559,52 +2607,52 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R18" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2660,7 +2708,7 @@
         <v>84</v>
       </c>
       <c r="R19" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2671,52 +2719,52 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q20" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="R20" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2842,49 +2890,49 @@
         <v>668.16</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R23" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2951,52 +2999,52 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>23152.88202809718</v>
+        <v>30019.46568235392</v>
       </c>
       <c r="D25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="E25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="F25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="G25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="H25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="I25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="J25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="K25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="L25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="M25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="N25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="O25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="P25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="Q25">
-        <v>31172.04867102133</v>
+        <v>40416.92279141703</v>
       </c>
       <c r="R25">
-        <v>459561.563422396</v>
+        <v>595856.3847621925</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3007,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>58780.04202809719</v>
+        <v>65646.62568235392</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -3052,7 +3100,7 @@
         <v>19</v>
       </c>
       <c r="R26" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3063,52 +3111,52 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K27" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M27" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q27" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="R27" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3231,49 +3279,49 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="Q30" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="R30" t="s">
         <v>10</v>
@@ -3287,52 +3335,52 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>9300.994375</v>
+        <v>9209.5563203125</v>
       </c>
       <c r="D31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="E31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="F31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="G31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="H31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="I31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="J31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="K31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="L31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="M31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="N31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="O31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="P31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="Q31">
-        <v>18601.98875</v>
+        <v>18419.112640625</v>
       </c>
       <c r="R31">
-        <v>269728.836875</v>
+        <v>267077.1332890625</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3388,7 +3436,7 @@
         <v>85</v>
       </c>
       <c r="R32" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3444,7 +3492,7 @@
         <v>87</v>
       </c>
       <c r="R33" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3455,52 +3503,52 @@
         <v>168796</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H34" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="J34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="K34" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="M34" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="N34" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="O34" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="Q34" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="R34" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
